--- a/Report/AA/ODM.xlsx
+++ b/Report/AA/ODM.xlsx
@@ -541,28 +541,28 @@
         <v>40939</v>
       </c>
       <c r="B2" t="n">
-        <v>107.1899642944336</v>
+        <v>107.1899795532227</v>
       </c>
       <c r="C2" t="n">
-        <v>37.83162307739258</v>
+        <v>37.83161544799805</v>
       </c>
       <c r="D2" t="n">
-        <v>86.71536254882812</v>
+        <v>86.71538543701172</v>
       </c>
       <c r="E2" t="n">
-        <v>85.48735809326172</v>
+        <v>85.48732757568359</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04192583295610341</v>
+        <v>0.042</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09501511238427085</v>
+        <v>-0.095</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0006109257582760375</v>
+        <v>-0.001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08570658672713161</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>107.1899642944336</v>
+        <v>107.1899795532227</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -599,37 +599,37 @@
         <v>111.8426055908203</v>
       </c>
       <c r="C3" t="n">
-        <v>39.66007232666016</v>
+        <v>39.66007995605469</v>
       </c>
       <c r="D3" t="n">
-        <v>86.73432922363281</v>
+        <v>86.73432159423828</v>
       </c>
       <c r="E3" t="n">
-        <v>85.47575378417969</v>
+        <v>85.4757080078125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06846921807919726</v>
+        <v>0.068</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.07081641495552427</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0003923360295664535</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08328912887467466</v>
+        <v>0.083</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04340556811462926</v>
+        <v>0.04340541958297051</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04833123986055532</v>
+        <v>0.04833165294170372</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002187233524395538</v>
+        <v>0.0002183713666397136</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0001357429840020963</v>
+        <v>-0.0001359215242844325</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.340556811462926</v>
+        <v>4.340541958297051</v>
       </c>
       <c r="R3" t="n">
-        <v>104.3405568114629</v>
+        <v>104.3405419582971</v>
       </c>
       <c r="S3" t="n">
         <v>-0</v>
@@ -659,40 +659,40 @@
         <v>40999</v>
       </c>
       <c r="B4" t="n">
-        <v>115.4398803710938</v>
+        <v>115.4399108886719</v>
       </c>
       <c r="C4" t="n">
-        <v>39.82695388793945</v>
+        <v>39.82695007324219</v>
       </c>
       <c r="D4" t="n">
-        <v>86.71536254882812</v>
+        <v>86.71538543701172</v>
       </c>
       <c r="E4" t="n">
-        <v>84.98603820800781</v>
+        <v>84.98603057861328</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08431694551404334</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05743309428795484</v>
+        <v>-0.057</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0006109257582760375</v>
+        <v>-0.001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07861942244866271</v>
+        <v>0.079</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03216372473862217</v>
+        <v>0.03216399760045308</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004207797704068206</v>
+        <v>0.004207508340184907</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0002186755229960369</v>
+        <v>-0.0002183236909968356</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.005729292278701337</v>
+        <v>-0.005728849056792384</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>115.4398803710938</v>
+        <v>115.4399108886719</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>3.216372473862217</v>
+        <v>3.216399760045308</v>
       </c>
       <c r="R4" t="n">
-        <v>107.6965377598214</v>
+        <v>107.6965508994737</v>
       </c>
       <c r="S4" t="n">
         <v>-0</v>
@@ -722,40 +722,40 @@
         <v>41029</v>
       </c>
       <c r="B5" t="n">
-        <v>114.6692581176758</v>
+        <v>114.6692352294922</v>
       </c>
       <c r="C5" t="n">
         <v>38.99980163574219</v>
       </c>
       <c r="D5" t="n">
-        <v>86.73432922363281</v>
+        <v>86.73432159423828</v>
       </c>
       <c r="E5" t="n">
-        <v>85.75594329833984</v>
+        <v>85.75597381591797</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0467630180709202</v>
+        <v>0.047</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1261691533103482</v>
+        <v>-0.126</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0003923360295664535</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07159355000042433</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.006675528863515079</v>
+        <v>-0.006675989727009668</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02076865467855293</v>
+        <v>-0.02076856088600476</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002187233524395538</v>
+        <v>0.0002183713666397136</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009059194975622242</v>
+        <v>0.009059644650569743</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>114.6692581176758</v>
+        <v>114.6692352294922</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>-0.6675528863515079</v>
+        <v>-0.6675989727009668</v>
       </c>
       <c r="R5" t="n">
-        <v>106.9776064135051</v>
+        <v>106.9775698320344</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.66755288635151</v>
+        <v>-0.6675989727009681</v>
       </c>
     </row>
     <row r="6">
@@ -785,40 +785,40 @@
         <v>41060</v>
       </c>
       <c r="B6" t="n">
-        <v>107.78271484375</v>
+        <v>107.7827301025391</v>
       </c>
       <c r="C6" t="n">
-        <v>34.65359115600586</v>
+        <v>34.65358734130859</v>
       </c>
       <c r="D6" t="n">
-        <v>86.73432922363281</v>
+        <v>86.73432159423828</v>
       </c>
       <c r="E6" t="n">
-        <v>86.68055725097656</v>
+        <v>86.6805419921875</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0179218804017649</v>
+        <v>0.018</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1867719157336655</v>
+        <v>-0.187</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0003923360295664535</v>
+        <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06527936055075689</v>
+        <v>0.065</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.06005570618463996</v>
+        <v>-0.06005538550223066</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.111441861174831</v>
+        <v>-0.111441958988079</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01078192271082656</v>
+        <v>0.01078138507591531</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>107.78271484375</v>
+        <v>107.7827301025391</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>-6.005570618463995</v>
+        <v>-6.005538550223067</v>
       </c>
       <c r="R6" t="n">
-        <v>100.5529907143996</v>
+        <v>100.5529906356798</v>
       </c>
       <c r="S6" t="n">
-        <v>-6.633033144810064</v>
+        <v>-6.633044609257574</v>
       </c>
     </row>
     <row r="7">
@@ -848,40 +848,40 @@
         <v>41090</v>
       </c>
       <c r="B7" t="n">
-        <v>112.1566467285156</v>
+        <v>112.1566314697266</v>
       </c>
       <c r="C7" t="n">
-        <v>37.09434509277344</v>
+        <v>37.09434127807617</v>
       </c>
       <c r="D7" t="n">
-        <v>86.69641876220703</v>
+        <v>86.69646453857422</v>
       </c>
       <c r="E7" t="n">
-        <v>86.66343688964844</v>
+        <v>86.66341400146484</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05320587527495979</v>
+        <v>0.053</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1396972166934868</v>
+        <v>-0.14</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.001047261165467273</v>
+        <v>-0.001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07445509415901053</v>
+        <v>0.074</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04058101422947469</v>
+        <v>0.04058072534464841</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07043292932555323</v>
+        <v>0.07043293707887188</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0004370871575893887</v>
+        <v>-0.000436471456376486</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0001975109744455361</v>
+        <v>-0.0001975990265981054</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>112.1566467285156</v>
+        <v>112.1566314697266</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.058101422947469</v>
+        <v>4.058072534464841</v>
       </c>
       <c r="R7" t="n">
-        <v>104.6335330613968</v>
+        <v>104.6335039312494</v>
       </c>
       <c r="S7" t="n">
-        <v>-2.844106934296709</v>
+        <v>-2.84414583627981</v>
       </c>
     </row>
     <row r="8">
@@ -914,37 +914,37 @@
         <v>113.4834136962891</v>
       </c>
       <c r="C8" t="n">
-        <v>37.12404632568359</v>
+        <v>37.12405014038086</v>
       </c>
       <c r="D8" t="n">
-        <v>86.69641876220703</v>
+        <v>86.69646453857422</v>
       </c>
       <c r="E8" t="n">
-        <v>87.84391784667969</v>
+        <v>87.84390258789062</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09206222740197378</v>
+        <v>0.092</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1067787133151187</v>
+        <v>-0.107</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.001047261165467273</v>
+        <v>-0.001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06845070315361479</v>
+        <v>0.068</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0118295884058035</v>
+        <v>0.01182972606413046</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000800694360174603</v>
+        <v>0.0008009001179445363</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01362144174520097</v>
+        <v>0.0136215333774623</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>1.18295884058035</v>
+        <v>1.182972606413046</v>
       </c>
       <c r="R8" t="n">
-        <v>105.8713046909582</v>
+        <v>105.8712896198861</v>
       </c>
       <c r="S8" t="n">
-        <v>-1.694792708131181</v>
+        <v>-1.694818695996394</v>
       </c>
     </row>
     <row r="9">
@@ -974,40 +974,40 @@
         <v>41152</v>
       </c>
       <c r="B9" t="n">
-        <v>116.3264617919922</v>
+        <v>116.3264694213867</v>
       </c>
       <c r="C9" t="n">
-        <v>38.3120231628418</v>
+        <v>38.31201171875</v>
       </c>
       <c r="D9" t="n">
-        <v>86.69641876220703</v>
+        <v>86.69646453857422</v>
       </c>
       <c r="E9" t="n">
-        <v>87.84392547607422</v>
+        <v>87.84386444091797</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1919881194750768</v>
+        <v>0.192</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009960563008631018</v>
+        <v>0.01</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.001047261165467273</v>
+        <v>-0.001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05159769362127231</v>
+        <v>0.052</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02505254294968484</v>
+        <v>0.02505261017884441</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03200019811246491</v>
+        <v>0.03199978380260182</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>8.685171071221021e-08</v>
+        <v>-4.342586285011052e-07</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>116.3264617919922</v>
+        <v>116.3264694213867</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>2.505254294968484</v>
+        <v>2.505261017884441</v>
       </c>
       <c r="R9" t="n">
-        <v>108.5236500988676</v>
+        <v>108.5236417678647</v>
       </c>
       <c r="S9" t="n">
         <v>-0</v>
@@ -1037,40 +1037,40 @@
         <v>41182</v>
       </c>
       <c r="B10" t="n">
-        <v>119.2754974365234</v>
+        <v>119.2754898071289</v>
       </c>
       <c r="C10" t="n">
         <v>39.35149383544922</v>
       </c>
       <c r="D10" t="n">
-        <v>86.69641876220703</v>
+        <v>86.69646453857422</v>
       </c>
       <c r="E10" t="n">
-        <v>88.07808685302734</v>
+        <v>88.07804107666016</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2671512913675587</v>
+        <v>0.267</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1097218584081745</v>
+        <v>0.11</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0008292517021157852</v>
+        <v>-0.001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05363199852805467</v>
+        <v>0.054</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02535137404767407</v>
+        <v>0.02535124121286203</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02713170923365871</v>
+        <v>0.02713201604577953</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00266565247037942</v>
+        <v>0.002665828026039208</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>119.2754974365234</v>
+        <v>119.2754898071289</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>2.535137404767407</v>
+        <v>2.535124121286203</v>
       </c>
       <c r="R10" t="n">
-        <v>111.2748737455429</v>
+        <v>111.2748507876201</v>
       </c>
       <c r="S10" t="n">
         <v>-0</v>
@@ -1100,40 +1100,40 @@
         <v>41213</v>
       </c>
       <c r="B11" t="n">
-        <v>117.1047973632812</v>
+        <v>117.1048583984375</v>
       </c>
       <c r="C11" t="n">
-        <v>39.78212356567383</v>
+        <v>39.78213882446289</v>
       </c>
       <c r="D11" t="n">
-        <v>86.71536254882812</v>
+        <v>86.71538543701172</v>
       </c>
       <c r="E11" t="n">
-        <v>88.03650665283203</v>
+        <v>88.0364990234375</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1834157297895842</v>
+        <v>0.183</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09356490280635987</v>
+        <v>0.094</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0006109257582760375</v>
+        <v>-0.001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04287972050863509</v>
+        <v>0.043</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01819904439633468</v>
+        <v>-0.01819846988011842</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01094316093882775</v>
+        <v>0.01094354869511283</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002185071412585948</v>
+        <v>0.0002182430222292808</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0004720833714825234</v>
+        <v>-0.0004716505126005632</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>117.1047973632812</v>
+        <v>117.1048583984375</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>-1.819904439633468</v>
+        <v>-1.819846988011842</v>
       </c>
       <c r="R11" t="n">
-        <v>109.2497773780512</v>
+        <v>109.2498187671469</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.819904439633461</v>
+        <v>-1.819846988011839</v>
       </c>
     </row>
     <row r="12">
@@ -1163,40 +1163,40 @@
         <v>41243</v>
       </c>
       <c r="B12" t="n">
-        <v>117.7676086425781</v>
+        <v>117.7676315307617</v>
       </c>
       <c r="C12" t="n">
         <v>40.888427734375</v>
       </c>
       <c r="D12" t="n">
-        <v>86.69641876220703</v>
+        <v>86.69646453857422</v>
       </c>
       <c r="E12" t="n">
-        <v>88.27481079101562</v>
+        <v>88.27480316162109</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1618294601509833</v>
+        <v>0.162</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1226484922835993</v>
+        <v>0.123</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0003933868434444765</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05384307529818644</v>
+        <v>0.054</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005659983999124485</v>
+        <v>0.005659655298580368</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02780907778527308</v>
+        <v>0.02780868356006616</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.000218459406318261</v>
+        <v>-0.000218195402605259</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002706878626197007</v>
+        <v>0.002706878860779582</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>117.7676086425781</v>
+        <v>117.7676315307617</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>0.5659983999124485</v>
+        <v>0.5659655298580368</v>
       </c>
       <c r="R12" t="n">
-        <v>109.8681293699189</v>
+        <v>109.8681350828013</v>
       </c>
       <c r="S12" t="n">
-        <v>-1.264206669729273</v>
+        <v>-1.264181164802105</v>
       </c>
     </row>
     <row r="13">
@@ -1226,40 +1226,40 @@
         <v>41274</v>
       </c>
       <c r="B13" t="n">
-        <v>118.81982421875</v>
+        <v>118.8198165893555</v>
       </c>
       <c r="C13" t="n">
-        <v>42.6798095703125</v>
+        <v>42.67981338500977</v>
       </c>
       <c r="D13" t="n">
-        <v>86.69641876220703</v>
+        <v>86.69646453857422</v>
       </c>
       <c r="E13" t="n">
-        <v>88.05835723876953</v>
+        <v>88.05829620361328</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1599037308216655</v>
+        <v>0.16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1875999904892274</v>
+        <v>0.188</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0004370871575893887</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03754950660150946</v>
+        <v>0.038</v>
       </c>
       <c r="J13" t="n">
-        <v>0.008934677270770797</v>
+        <v>0.008934416400476763</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04381146292968063</v>
+        <v>0.04381155622495947</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.002452042097926821</v>
+        <v>-0.002452647304252986</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>42.6798095703125</v>
+        <v>42.67981338500977</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>0.8934677270770797</v>
+        <v>0.8934416400476763</v>
       </c>
       <c r="R13" t="n">
-        <v>110.8497656481824</v>
+        <v>110.8497427507749</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.3820342212497898</v>
+        <v>-0.3820342456864146</v>
       </c>
     </row>
     <row r="14">
@@ -1289,40 +1289,40 @@
         <v>41305</v>
       </c>
       <c r="B14" t="n">
-        <v>124.9022445678711</v>
+        <v>124.902229309082</v>
       </c>
       <c r="C14" t="n">
         <v>44.27111434936523</v>
       </c>
       <c r="D14" t="n">
-        <v>86.69641876220703</v>
+        <v>86.69646453857422</v>
       </c>
       <c r="E14" t="n">
-        <v>87.51133728027344</v>
+        <v>87.51129150390625</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1551263074665423</v>
+        <v>0.155</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1520957231398128</v>
+        <v>0.152</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.000218459406318261</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02548146137567198</v>
+        <v>0.025</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05119028233809897</v>
+        <v>0.05119022141523377</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03728472069284083</v>
+        <v>0.03728462798092669</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.006212016390594877</v>
+        <v>-0.006211847415741656</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>124.9022445678711</v>
+        <v>124.902229309082</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>3.728472069284083</v>
+        <v>3.728462798092669</v>
       </c>
       <c r="R14" t="n">
-        <v>114.9827681992418</v>
+        <v>114.9827341710189</v>
       </c>
       <c r="S14" t="n">
         <v>-0</v>
@@ -1355,37 +1355,37 @@
         <v>126.4958190917969</v>
       </c>
       <c r="C15" t="n">
-        <v>43.70064544677734</v>
+        <v>43.70064163208008</v>
       </c>
       <c r="D15" t="n">
-        <v>86.69641876220703</v>
+        <v>86.69646453857422</v>
       </c>
       <c r="E15" t="n">
-        <v>88.02835845947266</v>
+        <v>88.02841949462891</v>
       </c>
       <c r="F15" t="n">
-        <v>0.131016381669306</v>
+        <v>0.131</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1018801248479078</v>
+        <v>0.102</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0004370871575893887</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02986349417564793</v>
+        <v>0.03</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01275857395068547</v>
+        <v>0.01275869767521409</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01288580400497807</v>
+        <v>-0.01288589017171049</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005908047977182029</v>
+        <v>0.005909271613247391</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>1.275857395068547</v>
+        <v>1.275869767521409</v>
       </c>
       <c r="R15" t="n">
-        <v>116.4497843503663</v>
+        <v>116.4497641141765</v>
       </c>
       <c r="S15" t="n">
         <v>-0</v>
@@ -1415,40 +1415,40 @@
         <v>41364</v>
       </c>
       <c r="B16" t="n">
-        <v>131.2990264892578</v>
+        <v>131.2990570068359</v>
       </c>
       <c r="C16" t="n">
         <v>44.27111434936523</v>
       </c>
       <c r="D16" t="n">
-        <v>86.69641876220703</v>
+        <v>86.69646453857422</v>
       </c>
       <c r="E16" t="n">
-        <v>88.11513519287109</v>
+        <v>88.11516571044922</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1401330109003325</v>
+        <v>0.14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1144290794235978</v>
+        <v>0.114</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0004370871575893887</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03804772991516159</v>
+        <v>0.038</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03797127392783861</v>
+        <v>0.037971515181489</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01305401549006091</v>
+        <v>0.01305410392112827</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0009857815699061412</v>
+        <v>0.0009854342077060263</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>131.2990264892578</v>
+        <v>131.2990570068359</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1464,10 +1464,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>3.797127392783861</v>
+        <v>3.7971515181489</v>
       </c>
       <c r="R16" t="n">
-        <v>120.8715310107718</v>
+        <v>120.8715381001187</v>
       </c>
       <c r="S16" t="n">
         <v>-0</v>
@@ -1478,40 +1478,40 @@
         <v>41394</v>
       </c>
       <c r="B17" t="n">
-        <v>133.8216247558594</v>
+        <v>133.8215942382812</v>
       </c>
       <c r="C17" t="n">
-        <v>46.492919921875</v>
+        <v>46.49292373657227</v>
       </c>
       <c r="D17" t="n">
-        <v>86.67751312255859</v>
+        <v>86.67755126953125</v>
       </c>
       <c r="E17" t="n">
-        <v>88.9686279296875</v>
+        <v>88.96859741210938</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1670226785502447</v>
+        <v>0.167</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1921322153409515</v>
+        <v>0.192</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0006550589781784133</v>
+        <v>-0.001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03746311343309361</v>
+        <v>0.037</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01921261972805222</v>
+        <v>0.01921215040648749</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05018634848394377</v>
+        <v>0.05018643465067618</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0002180671349331087</v>
+        <v>-0.0002181550210107464</v>
       </c>
       <c r="M17" t="n">
-        <v>0.009686108237231261</v>
+        <v>0.009685412207752986</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>46.492919921875</v>
+        <v>46.49292373657227</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>1.921261972805222</v>
+        <v>1.921215040648749</v>
       </c>
       <c r="R17" t="n">
-        <v>123.1937897720292</v>
+        <v>123.1937402699617</v>
       </c>
       <c r="S17" t="n">
         <v>-0</v>
@@ -1541,40 +1541,40 @@
         <v>41425</v>
       </c>
       <c r="B18" t="n">
-        <v>136.9810943603516</v>
+        <v>136.9810638427734</v>
       </c>
       <c r="C18" t="n">
         <v>45.08928298950195</v>
       </c>
       <c r="D18" t="n">
-        <v>86.69641876220703</v>
+        <v>86.69646453857422</v>
       </c>
       <c r="E18" t="n">
-        <v>87.18821716308594</v>
+        <v>87.188232421875</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2709003902799234</v>
+        <v>0.271</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3011431567515181</v>
+        <v>0.301</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0004370871575893887</v>
+        <v>-0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005856675686099821</v>
+        <v>0.006</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02360955944344756</v>
+        <v>0.02360956482753052</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.03019033725418119</v>
+        <v>-0.03019041682608103</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002181146985804627</v>
+        <v>0.0002182026230086453</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.02001166937191201</v>
+        <v>-0.0200111617134705</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1590,13 +1590,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>-3.019033725418119</v>
+        <v>-3.019041682608103</v>
       </c>
       <c r="R18" t="n">
-        <v>119.474527711191</v>
+        <v>119.4744699008476</v>
       </c>
       <c r="S18" t="n">
-        <v>-3.019033725418118</v>
+        <v>-3.019041682608099</v>
       </c>
     </row>
     <row r="19">
@@ -1604,40 +1604,40 @@
         <v>41455</v>
       </c>
       <c r="B19" t="n">
-        <v>135.1530914306641</v>
+        <v>135.1531524658203</v>
       </c>
       <c r="C19" t="n">
-        <v>43.88181304931641</v>
+        <v>43.88182067871094</v>
       </c>
       <c r="D19" t="n">
-        <v>86.67751312255859</v>
+        <v>86.67755126953125</v>
       </c>
       <c r="E19" t="n">
-        <v>85.82334899902344</v>
+        <v>85.82330322265625</v>
       </c>
       <c r="F19" t="n">
-        <v>0.235076139895275</v>
+        <v>0.235</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2256655394541773</v>
+        <v>0.226</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0006550589781784133</v>
+        <v>-0.001</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0110261986178678</v>
+        <v>-0.011</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01334492864306247</v>
+        <v>-0.01334426325562199</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02677953296499924</v>
+        <v>-0.02677936375861523</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002180671349331087</v>
+        <v>-0.0002181550210107464</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.01565427311708312</v>
+        <v>-0.01565497041635511</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>135.1530914306641</v>
+        <v>135.1531524658203</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1653,13 +1653,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>-2.677953296499924</v>
+        <v>-2.677936375861523</v>
       </c>
       <c r="R19" t="n">
-        <v>116.2750556578714</v>
+        <v>116.2750196115051</v>
       </c>
       <c r="S19" t="n">
-        <v>-5.616138708745771</v>
+        <v>-5.616130043048635</v>
       </c>
     </row>
     <row r="20">
@@ -1667,40 +1667,40 @@
         <v>41486</v>
       </c>
       <c r="B20" t="n">
-        <v>142.1374816894531</v>
+        <v>142.1374359130859</v>
       </c>
       <c r="C20" t="n">
-        <v>46.21758651733398</v>
+        <v>46.21759033203125</v>
       </c>
       <c r="D20" t="n">
-        <v>86.67751312255859</v>
+        <v>86.67755126953125</v>
       </c>
       <c r="E20" t="n">
-        <v>86.05432891845703</v>
+        <v>86.05433654785156</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2524956472480617</v>
+        <v>0.252</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2449501358735022</v>
+        <v>0.245</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0002180671349331087</v>
+        <v>-0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.02037237149811733</v>
+        <v>-0.02</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05167762116911834</v>
+        <v>0.0516768075316032</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05322873659282323</v>
+        <v>0.05322864040719932</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002691341250691925</v>
+        <v>0.002691964961963</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>142.1374816894531</v>
+        <v>142.1374359130859</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1716,13 +1716,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>5.167762116911834</v>
+        <v>5.16768075316032</v>
       </c>
       <c r="R20" t="n">
-        <v>122.283873935577</v>
+        <v>122.2837414207022</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.7386052804577204</v>
+        <v>-0.7386729611953915</v>
       </c>
     </row>
     <row r="21">
@@ -1730,40 +1730,40 @@
         <v>41517</v>
       </c>
       <c r="B21" t="n">
-        <v>137.8743896484375</v>
+        <v>137.8744049072266</v>
       </c>
       <c r="C21" t="n">
-        <v>45.31390762329102</v>
+        <v>45.31391143798828</v>
       </c>
       <c r="D21" t="n">
-        <v>86.67751312255859</v>
+        <v>86.67755126953125</v>
       </c>
       <c r="E21" t="n">
-        <v>85.34320831298828</v>
+        <v>85.34323120117188</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1908888803366851</v>
+        <v>0.191</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1931651271600863</v>
+        <v>0.193</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0002180671349331087</v>
+        <v>-0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.02543226761207973</v>
+        <v>-0.025</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.02999273654172219</v>
+        <v>-0.02999231679165881</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0195527062778158</v>
+        <v>-0.01955270466397885</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.008263623857233116</v>
+        <v>-0.008263445808849745</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>45.31390762329102</v>
+        <v>45.31391143798828</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>-2.999273654172219</v>
+        <v>-2.999231679165881</v>
       </c>
       <c r="R21" t="n">
-        <v>118.6162459213261</v>
+        <v>118.6161687095432</v>
       </c>
       <c r="S21" t="n">
-        <v>-3.715726141044849</v>
+        <v>-3.715750126903662</v>
       </c>
     </row>
     <row r="22">
@@ -1793,40 +1793,40 @@
         <v>41547</v>
       </c>
       <c r="B22" t="n">
-        <v>142.2376098632812</v>
+        <v>142.2376556396484</v>
       </c>
       <c r="C22" t="n">
-        <v>48.85969161987305</v>
+        <v>48.85968780517578</v>
       </c>
       <c r="D22" t="n">
-        <v>86.65863037109375</v>
+        <v>86.65859985351562</v>
       </c>
       <c r="E22" t="n">
-        <v>86.299560546875</v>
+        <v>86.29959106445312</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1925132396867839</v>
+        <v>0.193</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416222831128843</v>
+        <v>0.242</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0004358702660709479</v>
+        <v>-0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.02019260828314884</v>
+        <v>-0.02</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03164634292104163</v>
+        <v>0.03164656076200534</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07824935395241717</v>
+        <v>0.07824917899748884</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0002178506372021438</v>
+        <v>-0.0002186427251121836</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01120595596054219</v>
+        <v>0.01120604235181699</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>48.85969161987305</v>
+        <v>48.85968780517578</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>7.824935395241717</v>
+        <v>7.824917899748884</v>
       </c>
       <c r="R22" t="n">
-        <v>127.8978905329309</v>
+        <v>127.8977865268926</v>
       </c>
       <c r="S22" t="n">
         <v>-0</v>
@@ -1856,40 +1856,40 @@
         <v>41578</v>
       </c>
       <c r="B23" t="n">
-        <v>148.8241424560547</v>
+        <v>148.8242034912109</v>
       </c>
       <c r="C23" t="n">
-        <v>50.45260620117188</v>
+        <v>50.45260238647461</v>
       </c>
       <c r="D23" t="n">
-        <v>86.63970947265625</v>
+        <v>86.63968658447266</v>
       </c>
       <c r="E23" t="n">
-        <v>87.01813507080078</v>
+        <v>87.01815032958984</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2708629006408168</v>
+        <v>0.271</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2682230529469551</v>
+        <v>0.268</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0008724299126268154</v>
+        <v>-0.001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01156760553945135</v>
+        <v>-0.012</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04630654718610927</v>
+        <v>0.04630663955998515</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03260181406161244</v>
+        <v>0.03260181660698391</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0002183383046382437</v>
+        <v>-0.0002182503418580728</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008326514287815723</v>
+        <v>0.008326334531528312</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>148.8241424560547</v>
+        <v>148.8242034912109</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>3.260181406161244</v>
+        <v>3.260181660698391</v>
       </c>
       <c r="R23" t="n">
-        <v>132.067593778958</v>
+        <v>132.0674867076815</v>
       </c>
       <c r="S23" t="n">
         <v>-0</v>
@@ -1922,37 +1922,37 @@
         <v>153.2350006103516</v>
       </c>
       <c r="C24" t="n">
-        <v>50.72829437255859</v>
+        <v>50.72830581665039</v>
       </c>
       <c r="D24" t="n">
-        <v>86.62075042724609</v>
+        <v>86.62078094482422</v>
       </c>
       <c r="E24" t="n">
-        <v>86.80001831054688</v>
+        <v>86.80001068115234</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3014389243466082</v>
+        <v>0.301</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2422308017819661</v>
+        <v>0.242</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0008727965473231958</v>
+        <v>-0.001</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.01723175222709106</v>
+        <v>-0.017</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02963805523421259</v>
+        <v>0.02963763296338495</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005464299907272485</v>
+        <v>0.005464602758522785</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0002188262809923458</v>
+        <v>-0.0002182099265791715</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.002506566706772517</v>
+        <v>-0.002506829294937618</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1968,10 +1968,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>2.963805523421259</v>
+        <v>2.963763296338495</v>
       </c>
       <c r="R24" t="n">
-        <v>135.9818204180283</v>
+        <v>135.9816544051205</v>
       </c>
       <c r="S24" t="n">
         <v>-0</v>
@@ -1985,37 +1985,37 @@
         <v>157.2078399658203</v>
       </c>
       <c r="C25" t="n">
-        <v>51.83221817016602</v>
+        <v>51.83222198486328</v>
       </c>
       <c r="D25" t="n">
-        <v>86.62075042724609</v>
+        <v>86.62078094482422</v>
       </c>
       <c r="E25" t="n">
-        <v>86.31676483154297</v>
+        <v>86.31678771972656</v>
       </c>
       <c r="F25" t="n">
-        <v>0.323077533563735</v>
+        <v>0.323</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2144435200624655</v>
+        <v>0.214</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0008727965473231958</v>
+        <v>-0.001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.01977770721414041</v>
+        <v>-0.02</v>
       </c>
       <c r="J25" t="n">
         <v>0.02592644852445258</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0217615003867464</v>
+        <v>0.02176134508025607</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.005567435219598238</v>
+        <v>-0.005567084123996646</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>2.592644852445258</v>
       </c>
       <c r="R25" t="n">
-        <v>139.5073460853577</v>
+        <v>139.5071757683248</v>
       </c>
       <c r="S25" t="n">
         <v>-0</v>
@@ -2045,40 +2045,40 @@
         <v>41670</v>
       </c>
       <c r="B26" t="n">
-        <v>151.6665496826172</v>
+        <v>151.6665344238281</v>
       </c>
       <c r="C26" t="n">
         <v>49.13633346557617</v>
       </c>
       <c r="D26" t="n">
-        <v>86.62075042724609</v>
+        <v>86.62078094482422</v>
       </c>
       <c r="E26" t="n">
-        <v>87.64682769775391</v>
+        <v>87.64682006835938</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2142820187687062</v>
+        <v>0.214</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1098960165722753</v>
+        <v>0.11</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0008727965473231958</v>
+        <v>-0.001</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001548261307521059</v>
+        <v>0.002</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0352481802714667</v>
+        <v>-0.03524827733271418</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.05201175638941802</v>
+        <v>-0.05201182615853128</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01540909079257902</v>
+        <v>0.01540873315341007</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>151.6665496826172</v>
+        <v>151.6665344238281</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2094,13 +2094,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>-3.52481802714667</v>
+        <v>-3.524827733271418</v>
       </c>
       <c r="R26" t="n">
-        <v>134.5899660013471</v>
+        <v>134.5897881469392</v>
       </c>
       <c r="S26" t="n">
-        <v>-3.524818027146678</v>
+        <v>-3.524827733271426</v>
       </c>
     </row>
     <row r="27">
@@ -2108,40 +2108,40 @@
         <v>41698</v>
       </c>
       <c r="B27" t="n">
-        <v>158.5697326660156</v>
+        <v>158.5697631835938</v>
       </c>
       <c r="C27" t="n">
-        <v>52.14894485473633</v>
+        <v>52.14894104003906</v>
       </c>
       <c r="D27" t="n">
-        <v>86.63970947265625</v>
+        <v>86.63968658447266</v>
       </c>
       <c r="E27" t="n">
-        <v>87.97675323486328</v>
+        <v>87.97669982910156</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2535571041359319</v>
+        <v>0.254</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1933220738867141</v>
+        <v>0.193</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0006541134035342733</v>
+        <v>-0.001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0005862340899283058</v>
+        <v>-0.001</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04551552730542285</v>
+        <v>0.04551583370709023</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06131127775886513</v>
+        <v>0.06131120012390534</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0002188741764144186</v>
+        <v>0.0002182575525435659</v>
       </c>
       <c r="M27" t="n">
-        <v>0.003764261020913429</v>
+        <v>0.003763739066459104</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>158.5697326660156</v>
+        <v>158.5697631835938</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>4.551552730542285</v>
+        <v>4.551583370709023</v>
       </c>
       <c r="R27" t="n">
-        <v>140.7158992739173</v>
+        <v>140.7157545629077</v>
       </c>
       <c r="S27" t="n">
         <v>-0</v>
@@ -2174,37 +2174,37 @@
         <v>159.8851470947266</v>
       </c>
       <c r="C28" t="n">
-        <v>51.90946960449219</v>
+        <v>51.90946197509766</v>
       </c>
       <c r="D28" t="n">
-        <v>86.62075042724609</v>
+        <v>86.62078094482422</v>
       </c>
       <c r="E28" t="n">
-        <v>87.84648895263672</v>
+        <v>87.84645843505859</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2177176889259533</v>
+        <v>0.218</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1725358705644706</v>
+        <v>0.173</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0008727965473231958</v>
+        <v>-0.001</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.003048809261273266</v>
+        <v>-0.003</v>
       </c>
       <c r="J28" t="n">
-        <v>0.008295495026667599</v>
+        <v>0.008295300974939579</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.004592139896813063</v>
+        <v>-0.004592213382771049</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0002188262809923458</v>
+        <v>-0.0002182099265791715</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.001480667078936238</v>
+        <v>-0.001480407815887208</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2220,10 +2220,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>0.8295495026667599</v>
+        <v>0.8295300974939579</v>
       </c>
       <c r="R28" t="n">
-        <v>141.8832073165171</v>
+        <v>141.8830340989228</v>
       </c>
       <c r="S28" t="n">
         <v>-0</v>
@@ -2237,37 +2237,37 @@
         <v>160.9965972900391</v>
       </c>
       <c r="C29" t="n">
-        <v>52.77463150024414</v>
+        <v>52.77462005615234</v>
       </c>
       <c r="D29" t="n">
-        <v>86.62075042724609</v>
+        <v>86.62078094482422</v>
       </c>
       <c r="E29" t="n">
-        <v>88.56826782226562</v>
+        <v>88.56830596923828</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2030686190199602</v>
+        <v>0.203</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1351111435660461</v>
+        <v>0.135</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0006548722184984701</v>
+        <v>-0.001</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.004500014406631947</v>
+        <v>-0.004</v>
       </c>
       <c r="J29" t="n">
         <v>0.006951553759111828</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01666674505333576</v>
+        <v>0.01666667401541799</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.008216365596786179</v>
+        <v>0.008217150093914327</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>0.6951553759111828</v>
       </c>
       <c r="R29" t="n">
-        <v>142.8695160596931</v>
+        <v>142.8693416379674</v>
       </c>
       <c r="S29" t="n">
         <v>-0</v>
@@ -2297,40 +2297,40 @@
         <v>41790</v>
       </c>
       <c r="B30" t="n">
-        <v>164.7327575683594</v>
+        <v>164.7327728271484</v>
       </c>
       <c r="C30" t="n">
         <v>53.61662292480469</v>
       </c>
       <c r="D30" t="n">
-        <v>86.62075042724609</v>
+        <v>86.62078094482422</v>
       </c>
       <c r="E30" t="n">
-        <v>89.61260223388672</v>
+        <v>89.61256408691406</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1853352948519797</v>
+        <v>0.185</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1660221109289592</v>
+        <v>0.166</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0006548722184984701</v>
+        <v>-0.001</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02583212975942994</v>
+        <v>0.026</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02320645492643258</v>
+        <v>0.02320654970352298</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01595447283334694</v>
+        <v>0.01595469314144649</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01179129317191574</v>
+        <v>0.01179042667970265</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>164.7327575683594</v>
+        <v>164.7327728271484</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>2.320645492643258</v>
+        <v>2.320654970352298</v>
       </c>
       <c r="R30" t="n">
-        <v>146.1850110444936</v>
+        <v>146.1848461157985</v>
       </c>
       <c r="S30" t="n">
         <v>-0</v>
@@ -2360,40 +2360,40 @@
         <v>41820</v>
       </c>
       <c r="B31" t="n">
-        <v>168.1336822509766</v>
+        <v>168.1336669921875</v>
       </c>
       <c r="C31" t="n">
-        <v>54.11028671264648</v>
+        <v>54.11029434204102</v>
       </c>
       <c r="D31" t="n">
         <v>86.60182952880859</v>
       </c>
       <c r="E31" t="n">
-        <v>89.56098175048828</v>
+        <v>89.56101226806641</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2440239470011096</v>
+        <v>0.244</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2330914096879919</v>
+        <v>0.233</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0008731629579979971</v>
+        <v>-0.001</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04355030181247499</v>
+        <v>0.044</v>
       </c>
       <c r="J31" t="n">
-        <v>0.02064510260629793</v>
+        <v>0.02064491543894276</v>
       </c>
       <c r="K31" t="n">
-        <v>0.009207289846175915</v>
+        <v>0.009207432141496108</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0002184337857172869</v>
+        <v>-0.0002187860211938508</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0005760404464508762</v>
+        <v>-0.0005752744536765553</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>168.1336822509766</v>
+        <v>168.1336669921875</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>2.064510260629793</v>
+        <v>2.064491543894276</v>
       </c>
       <c r="R31" t="n">
-        <v>149.20301559701</v>
+        <v>149.202819902314</v>
       </c>
       <c r="S31" t="n">
         <v>-0</v>
@@ -2426,37 +2426,37 @@
         <v>165.8743438720703</v>
       </c>
       <c r="C32" t="n">
-        <v>52.70153427124023</v>
+        <v>52.70153045654297</v>
       </c>
       <c r="D32" t="n">
-        <v>86.58292388916016</v>
+        <v>86.58290863037109</v>
       </c>
       <c r="E32" t="n">
-        <v>89.33629608154297</v>
+        <v>89.33626556396484</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1669993157362835</v>
+        <v>0.167</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1402917859303283</v>
+        <v>0.14</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.00109127765657846</v>
+        <v>-0.001</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03813831569351778</v>
+        <v>0.038</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.01343774994194014</v>
+        <v>-0.01343766040755046</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.02603483601717826</v>
+        <v>-0.02603504384199051</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.000218305314694911</v>
+        <v>-0.0002184815094605774</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.002508745042246963</v>
+        <v>-0.002509425679880328</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>-1.343774994194014</v>
+        <v>-1.343766040755046</v>
       </c>
       <c r="R32" t="n">
-        <v>147.198062782834</v>
+        <v>147.1978830766178</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.34377499419401</v>
+        <v>-1.343766040755043</v>
       </c>
     </row>
     <row r="33">
@@ -2486,40 +2486,40 @@
         <v>41882</v>
       </c>
       <c r="B33" t="n">
-        <v>172.4202880859375</v>
+        <v>172.4203491210938</v>
       </c>
       <c r="C33" t="n">
-        <v>52.7965087890625</v>
+        <v>52.79651260375977</v>
       </c>
       <c r="D33" t="n">
         <v>86.60182952880859</v>
       </c>
       <c r="E33" t="n">
-        <v>90.36328125</v>
+        <v>90.36332702636719</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2465998745648521</v>
+        <v>0.247</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1507364352074454</v>
+        <v>0.151</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.0008731629579979971</v>
+        <v>-0.001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05713045851635568</v>
+        <v>0.057</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03946327117902992</v>
+        <v>0.03946363913922712</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001802120548017871</v>
+        <v>0.00180226544455131</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0002183529823114316</v>
+        <v>0.000218529254061739</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01149572137532573</v>
+        <v>0.01149657931097381</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>172.4202880859375</v>
+        <v>172.4203491210938</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>3.946327117902992</v>
+        <v>3.946363913922712</v>
       </c>
       <c r="R33" t="n">
-        <v>153.0069798514609</v>
+        <v>153.0068472164116</v>
       </c>
       <c r="S33" t="n">
         <v>-0</v>
@@ -2549,7 +2549,7 @@
         <v>41912</v>
       </c>
       <c r="B34" t="n">
-        <v>170.0415802001953</v>
+        <v>170.0415649414062</v>
       </c>
       <c r="C34" t="n">
         <v>50.74669647216797</v>
@@ -2558,31 +2558,31 @@
         <v>86.60182952880859</v>
       </c>
       <c r="E34" t="n">
-        <v>89.80770111083984</v>
+        <v>89.80774688720703</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1954755170846814</v>
+        <v>0.195</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03862089157205006</v>
+        <v>0.039</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.0006554551121096264</v>
+        <v>-0.001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04065073497169602</v>
+        <v>0.041</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.01379598603011611</v>
+        <v>-0.01379642363452616</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.03882477012039054</v>
+        <v>-0.03882483956801774</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.006148295319457042</v>
+        <v>-0.006148292204845918</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>170.0415802001953</v>
+        <v>170.0415649414062</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>-1.379598603011611</v>
+        <v>-1.379642363452616</v>
       </c>
       <c r="R34" t="n">
-        <v>150.8960976949199</v>
+        <v>150.8958999332307</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.379598603011607</v>
+        <v>-1.379642363452621</v>
       </c>
     </row>
     <row r="35">
@@ -2618,34 +2618,34 @@
         <v>50.61215209960938</v>
       </c>
       <c r="D35" t="n">
-        <v>86.58292388916016</v>
+        <v>86.58290863037109</v>
       </c>
       <c r="E35" t="n">
-        <v>90.76333618164062</v>
+        <v>90.76335144042969</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1694754996212067</v>
+        <v>0.169</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00316229250479827</v>
+        <v>0.003</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.0006554221365898671</v>
+        <v>-0.001</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04303931712386877</v>
+        <v>0.043</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02355075828854414</v>
+        <v>0.02355085013752878</v>
       </c>
       <c r="K35" t="n">
         <v>-0.002651293225212847</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.000218305314694911</v>
+        <v>-0.0002184815094605774</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01064090338557211</v>
+        <v>0.01064055815165732</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>2.355075828854414</v>
+        <v>2.355085013752878</v>
       </c>
       <c r="R35" t="n">
-        <v>154.4498152184175</v>
+        <v>154.4496266589258</v>
       </c>
       <c r="S35" t="n">
         <v>-0</v>
@@ -2675,40 +2675,40 @@
         <v>41973</v>
       </c>
       <c r="B36" t="n">
-        <v>178.8275909423828</v>
+        <v>178.8276062011719</v>
       </c>
       <c r="C36" t="n">
-        <v>50.6438102722168</v>
+        <v>50.64381408691406</v>
       </c>
       <c r="D36" t="n">
-        <v>86.58292388916016</v>
+        <v>86.58290863037109</v>
       </c>
       <c r="E36" t="n">
-        <v>91.35971069335938</v>
+        <v>91.35971832275391</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1662420998884773</v>
+        <v>0.166</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0002976185767036288</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0008736173374700451</v>
+        <v>-0.001</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05292331809201478</v>
+        <v>0.053</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02747203275806309</v>
+        <v>0.02747212042898073</v>
       </c>
       <c r="K36" t="n">
-        <v>0.000625505363714085</v>
+        <v>0.0006255807348869435</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.006570654372215268</v>
+        <v>0.006570569209485733</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>178.8275909423828</v>
+        <v>178.8276062011719</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>2.747203275806309</v>
+        <v>2.747212042898073</v>
       </c>
       <c r="R36" t="n">
-        <v>158.6928656015746</v>
+        <v>158.6926854027109</v>
       </c>
       <c r="S36" t="n">
         <v>-0</v>
@@ -2738,40 +2738,40 @@
         <v>42004</v>
       </c>
       <c r="B37" t="n">
-        <v>178.3739624023438</v>
+        <v>178.3739776611328</v>
       </c>
       <c r="C37" t="n">
-        <v>48.62172317504883</v>
+        <v>48.6217155456543</v>
       </c>
       <c r="D37" t="n">
-        <v>86.56397247314453</v>
+        <v>86.56398773193359</v>
       </c>
       <c r="E37" t="n">
-        <v>91.49456787109375</v>
+        <v>91.49455261230469</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1346378300288671</v>
+        <v>0.135</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.06194014280031546</v>
+        <v>-0.062</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0006554775134308688</v>
+        <v>-0.001</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05998606469619028</v>
+        <v>0.06</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.002536680931888302</v>
+        <v>-0.002536680715441442</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.03992762563280683</v>
+        <v>-0.03992784859745113</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0002188816820264394</v>
+        <v>-0.00021852925406185</v>
       </c>
       <c r="M37" t="n">
-        <v>0.001476112136420848</v>
+        <v>0.001475861484975693</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>178.3739624023438</v>
+        <v>178.3739776611328</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>-0.2536680931888302</v>
+        <v>-0.2536680715441442</v>
       </c>
       <c r="R37" t="n">
-        <v>158.2903124353764</v>
+        <v>158.2901327279682</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.2536680931888372</v>
+        <v>-0.2536680715441448</v>
       </c>
     </row>
     <row r="38">
@@ -2801,40 +2801,40 @@
         <v>42035</v>
       </c>
       <c r="B38" t="n">
-        <v>173.0888824462891</v>
+        <v>173.0888977050781</v>
       </c>
       <c r="C38" t="n">
-        <v>48.92540740966797</v>
+        <v>48.92539978027344</v>
       </c>
       <c r="D38" t="n">
-        <v>86.54505920410156</v>
+        <v>86.54503631591797</v>
       </c>
       <c r="E38" t="n">
-        <v>93.37229919433594</v>
+        <v>93.37234497070312</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1345606554786416</v>
+        <v>0.135</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.02121854094389763</v>
+        <v>-0.021</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.001092458286515385</v>
+        <v>-0.001</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06729978820561855</v>
+        <v>0.067</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.02962921204908575</v>
+        <v>-0.02962920951449011</v>
       </c>
       <c r="K38" t="n">
-        <v>0.006245855037383397</v>
+        <v>0.006245856017441209</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0002184889221533703</v>
+        <v>-0.0002189295631147559</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02052287219813653</v>
+        <v>0.02052354271139301</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>173.0888824462891</v>
+        <v>173.0888977050781</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2850,13 +2850,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>-2.962921204908575</v>
+        <v>-2.962920951449011</v>
       </c>
       <c r="R38" t="n">
-        <v>153.6002952029125</v>
+        <v>153.6001212212948</v>
       </c>
       <c r="S38" t="n">
-        <v>-3.209073312374235</v>
+        <v>-3.209073038554231</v>
       </c>
     </row>
     <row r="39">
@@ -2864,40 +2864,40 @@
         <v>42063</v>
       </c>
       <c r="B39" t="n">
-        <v>182.8173217773438</v>
+        <v>182.8172760009766</v>
       </c>
       <c r="C39" t="n">
-        <v>52.02620315551758</v>
+        <v>52.02619552612305</v>
       </c>
       <c r="D39" t="n">
-        <v>86.54505920410156</v>
+        <v>86.54503631591797</v>
       </c>
       <c r="E39" t="n">
-        <v>92.53678131103516</v>
+        <v>92.53678894042969</v>
       </c>
       <c r="F39" t="n">
-        <v>0.155830399328253</v>
+        <v>0.156</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0005768626629378826</v>
+        <v>-0.001</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0008738232210087071</v>
+        <v>-0.001</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05124983131353034</v>
+        <v>0.051</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05620487690232512</v>
+        <v>0.05620451932436699</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06337802606089027</v>
+        <v>0.0633780359440177</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.008948241507492627</v>
+        <v>-0.008948645667361199</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>182.8173217773438</v>
+        <v>182.8172760009766</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>5.620487690232512</v>
+        <v>5.620451932436699</v>
       </c>
       <c r="R39" t="n">
-        <v>162.2333808869531</v>
+        <v>162.2331422027022</v>
       </c>
       <c r="S39" t="n">
         <v>-0</v>
@@ -2927,40 +2927,40 @@
         <v>42094</v>
       </c>
       <c r="B40" t="n">
-        <v>179.9460296630859</v>
+        <v>179.9459991455078</v>
       </c>
       <c r="C40" t="n">
-        <v>51.28296661376953</v>
+        <v>51.28296279907227</v>
       </c>
       <c r="D40" t="n">
-        <v>86.54505920410156</v>
+        <v>86.54503631591797</v>
       </c>
       <c r="E40" t="n">
-        <v>92.883544921875</v>
+        <v>92.88358306884766</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1254705826831681</v>
+        <v>0.125</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.01206914644854007</v>
+        <v>-0.012</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.0008738232210087071</v>
+        <v>-0.001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05733929755523937</v>
+        <v>0.057</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.01570579902573355</v>
+        <v>-0.01570571949367305</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.01428581170004573</v>
+        <v>-0.0142857404723663</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.003747305729970174</v>
+        <v>0.003747635209616185</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>179.9460296630859</v>
+        <v>179.9459991455078</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -2976,13 +2976,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>-1.570579902573355</v>
+        <v>-1.570571949367305</v>
       </c>
       <c r="R40" t="n">
-        <v>159.6853760114773</v>
+        <v>159.6851539786894</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.570579902573358</v>
+        <v>-1.570571949367304</v>
       </c>
     </row>
     <row r="41">
@@ -2990,40 +2990,40 @@
         <v>42124</v>
       </c>
       <c r="B41" t="n">
-        <v>181.7155609130859</v>
+        <v>181.7156066894531</v>
       </c>
       <c r="C41" t="n">
-        <v>53.15303421020508</v>
+        <v>53.15303802490234</v>
       </c>
       <c r="D41" t="n">
-        <v>86.526123046875</v>
+        <v>86.52613830566406</v>
       </c>
       <c r="E41" t="n">
-        <v>92.58372497558594</v>
+        <v>92.58374786376953</v>
       </c>
       <c r="F41" t="n">
-        <v>0.128691934934011</v>
+        <v>0.129</v>
       </c>
       <c r="G41" t="n">
-        <v>0.007170162996954055</v>
+        <v>0.007</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.001092433163004891</v>
+        <v>-0.001</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04533742447552802</v>
+        <v>0.045</v>
       </c>
       <c r="J41" t="n">
-        <v>0.009833677649421446</v>
+        <v>0.009834103299592556</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03646566725594669</v>
+        <v>0.03646581873900456</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0002188011355090946</v>
+        <v>-0.0002183604174007536</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.00322791239870579</v>
+        <v>-0.003228075351656923</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>181.7155609130859</v>
+        <v>181.7156066894531</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -3039,13 +3039,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>0.9833677649421446</v>
+        <v>0.9834103299592556</v>
       </c>
       <c r="R41" t="n">
-        <v>161.2556705245008</v>
+        <v>161.2555142783271</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.6026567141157769</v>
+        <v>-0.6026067861975687</v>
       </c>
     </row>
     <row r="42">
@@ -3053,40 +3053,40 @@
         <v>42155</v>
       </c>
       <c r="B42" t="n">
-        <v>184.0518035888672</v>
+        <v>184.0517730712891</v>
       </c>
       <c r="C42" t="n">
-        <v>53.25692749023438</v>
+        <v>53.25693511962891</v>
       </c>
       <c r="D42" t="n">
-        <v>86.50718688964844</v>
+        <v>86.50719451904297</v>
       </c>
       <c r="E42" t="n">
-        <v>92.17881774902344</v>
+        <v>92.17878723144531</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1190754940573213</v>
+        <v>0.119</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.006565315007605377</v>
+        <v>-0.007</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.001092848034217053</v>
+        <v>-0.001</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02957582409529103</v>
+        <v>0.03</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01285659116941917</v>
+        <v>0.01285616807712264</v>
       </c>
       <c r="K42" t="n">
-        <v>0.001954606760893984</v>
+        <v>0.001954678388804254</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0002188490199231952</v>
+        <v>-0.0002189371557779207</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.004373416890163684</v>
+        <v>-0.004373992646312885</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>184.0518035888672</v>
+        <v>184.0517730712891</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3102,10 +3102,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>1.285659116941917</v>
+        <v>1.285616807712264</v>
       </c>
       <c r="R42" t="n">
-        <v>163.3288687541849</v>
+        <v>163.3286422732522</v>
       </c>
       <c r="S42" t="n">
         <v>-0</v>
@@ -3116,40 +3116,40 @@
         <v>42185</v>
       </c>
       <c r="B43" t="n">
-        <v>180.3132629394531</v>
+        <v>180.3132934570312</v>
       </c>
       <c r="C43" t="n">
-        <v>51.59626007080078</v>
+        <v>51.59624862670898</v>
       </c>
       <c r="D43" t="n">
-        <v>86.50718688964844</v>
+        <v>86.50719451904297</v>
       </c>
       <c r="E43" t="n">
-        <v>91.186279296875</v>
+        <v>91.18627166748047</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07243986169467131</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.04646115913590476</v>
+        <v>-0.046</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.001092848034217053</v>
+        <v>-0.001</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01814738421374962</v>
+        <v>0.018</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.02031243691458284</v>
+        <v>-0.02031210866308675</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.03118218601210343</v>
+        <v>-0.03118253968595053</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.01076753289297805</v>
+        <v>-0.01076728815570993</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>180.3132629394531</v>
+        <v>180.3132934570312</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3165,13 +3165,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>-2.031243691458284</v>
+        <v>-2.031210866308675</v>
       </c>
       <c r="R43" t="n">
-        <v>160.0112614112853</v>
+        <v>160.0110931436034</v>
       </c>
       <c r="S43" t="n">
-        <v>-2.031243691458286</v>
+        <v>-2.031210866308675</v>
       </c>
     </row>
     <row r="44">
@@ -3179,40 +3179,40 @@
         <v>42216</v>
       </c>
       <c r="B44" t="n">
-        <v>184.3864288330078</v>
+        <v>184.3863983154297</v>
       </c>
       <c r="C44" t="n">
-        <v>52.64459609985352</v>
+        <v>52.64458465576172</v>
       </c>
       <c r="D44" t="n">
-        <v>86.50718688964844</v>
+        <v>86.50719451904297</v>
       </c>
       <c r="E44" t="n">
-        <v>91.97249603271484</v>
+        <v>91.97248077392578</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1116030636733962</v>
+        <v>0.112</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.00108038925572207</v>
+        <v>-0.001</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.0008747336785330795</v>
+        <v>-0.001</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02950872228646739</v>
+        <v>0.03</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02258938597834814</v>
+        <v>0.02258904366010639</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0203180623482051</v>
+        <v>0.02031806685476867</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.00862209470440356</v>
+        <v>0.008622011757562609</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>184.3864288330078</v>
+        <v>184.3863983154297</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>2.258938597834814</v>
+        <v>2.258904366010639</v>
       </c>
       <c r="R44" t="n">
-        <v>163.6258175561872</v>
+        <v>163.6255907127257</v>
       </c>
       <c r="S44" t="n">
         <v>-0</v>
@@ -3242,40 +3242,40 @@
         <v>42247</v>
       </c>
       <c r="B45" t="n">
-        <v>173.1480407714844</v>
+        <v>173.1480102539062</v>
       </c>
       <c r="C45" t="n">
-        <v>48.73566055297852</v>
+        <v>48.73566436767578</v>
       </c>
       <c r="D45" t="n">
-        <v>86.50718688964844</v>
+        <v>86.50719451904297</v>
       </c>
       <c r="E45" t="n">
-        <v>91.66359710693359</v>
+        <v>91.66361999511719</v>
       </c>
       <c r="F45" t="n">
-        <v>0.004220806574596114</v>
+        <v>0.004</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.07691509020621534</v>
+        <v>-0.077</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.001092848034217053</v>
+        <v>-0.001</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01438986985583357</v>
+        <v>0.014</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.06095019103440436</v>
+        <v>-0.06095020112219951</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.07425141109375666</v>
+        <v>-0.07425113738945843</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.003358601093867986</v>
+        <v>-0.003358186886007752</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>173.1480407714844</v>
+        <v>173.1480102539062</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3291,13 +3291,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>-6.095019103440436</v>
+        <v>-6.095020112219951</v>
       </c>
       <c r="R45" t="n">
-        <v>153.652792717977</v>
+        <v>153.6525780500463</v>
       </c>
       <c r="S45" t="n">
-        <v>-6.095019103440438</v>
+        <v>-6.095020112219957</v>
       </c>
     </row>
     <row r="46">
@@ -3305,40 +3305,40 @@
         <v>42277</v>
       </c>
       <c r="B46" t="n">
-        <v>168.7299957275391</v>
+        <v>168.7300109863281</v>
       </c>
       <c r="C46" t="n">
-        <v>46.58209228515625</v>
+        <v>46.58208847045898</v>
       </c>
       <c r="D46" t="n">
-        <v>86.46936798095703</v>
+        <v>86.46935272216797</v>
       </c>
       <c r="E46" t="n">
-        <v>92.40735626220703</v>
+        <v>92.40741729736328</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.007713316184853602</v>
+        <v>-0.008</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.08206650829568374</v>
+        <v>-0.082</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.001529546760989597</v>
+        <v>-0.002</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02894690677093181</v>
+        <v>0.029</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.0255159978955587</v>
+        <v>-0.0255157380156984</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.04418875713157122</v>
+        <v>-0.04418891021921045</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0004371764942449063</v>
+        <v>-0.0004374410369610837</v>
       </c>
       <c r="M46" t="n">
-        <v>0.008114007945878132</v>
+        <v>0.008114422082454498</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>92.40735626220703</v>
+        <v>92.40741729736328</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -3354,13 +3354,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>-2.55159978955587</v>
+        <v>-2.55157380156984</v>
       </c>
       <c r="R46" t="n">
-        <v>149.7321883823384</v>
+        <v>149.7320191230847</v>
       </c>
       <c r="S46" t="n">
-        <v>-8.491098398379528</v>
+        <v>-8.491074977405983</v>
       </c>
     </row>
     <row r="47">
@@ -3368,40 +3368,40 @@
         <v>42308</v>
       </c>
       <c r="B47" t="n">
-        <v>183.0820922851562</v>
+        <v>183.0821228027344</v>
       </c>
       <c r="C47" t="n">
-        <v>49.66210556030273</v>
+        <v>49.662109375</v>
       </c>
       <c r="D47" t="n">
-        <v>86.45044708251953</v>
+        <v>86.45047760009766</v>
       </c>
       <c r="E47" t="n">
-        <v>92.47075653076172</v>
+        <v>92.47074127197266</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06394562118061264</v>
+        <v>0.064</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0006436627658477079</v>
+        <v>-0.001</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.001311462348383086</v>
+        <v>-0.001</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01881178481258239</v>
+        <v>0.019</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0850595443669222</v>
+        <v>0.08505962710788406</v>
       </c>
       <c r="K47" t="n">
-        <v>0.06612011449146427</v>
+        <v>0.06612028369003409</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0002188161990690496</v>
+        <v>-0.0002182868435589569</v>
       </c>
       <c r="M47" t="n">
-        <v>0.000686095470308512</v>
+        <v>0.0006852693913692587</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>183.0820922851562</v>
+        <v>183.0821228027344</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3417,13 +3417,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>0.0686095470308512</v>
+        <v>0.06852693913692587</v>
       </c>
       <c r="R47" t="n">
-        <v>149.8349189585469</v>
+        <v>149.8346258926976</v>
       </c>
       <c r="S47" t="n">
-        <v>-8.428314555497744</v>
+        <v>-8.4283667120509</v>
       </c>
     </row>
     <row r="48">
@@ -3431,40 +3431,40 @@
         <v>42338</v>
       </c>
       <c r="B48" t="n">
-        <v>183.7513580322266</v>
+        <v>183.7513122558594</v>
       </c>
       <c r="C48" t="n">
         <v>49.28827667236328</v>
       </c>
       <c r="D48" t="n">
-        <v>86.46936798095703</v>
+        <v>86.46935272216797</v>
       </c>
       <c r="E48" t="n">
         <v>92.11097717285156</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02753359850063708</v>
+        <v>0.028</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.02676602713277998</v>
+        <v>-0.027</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.001311527759775055</v>
+        <v>-0.001</v>
       </c>
       <c r="I48" t="n">
-        <v>0.008223170517841716</v>
+        <v>0.008</v>
       </c>
       <c r="J48" t="n">
-        <v>0.003655550025219778</v>
+        <v>0.003655132696085417</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.00752744741129685</v>
+        <v>-0.00752752364612419</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0002188640900773198</v>
+        <v>0.000218334503108597</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.003890736611314227</v>
+        <v>-0.003890572241255885</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>183.7513580322266</v>
+        <v>183.7513122558594</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -3480,13 +3480,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>0.3655550025219778</v>
+        <v>0.3655132696085417</v>
       </c>
       <c r="R48" t="n">
-        <v>150.3826480003246</v>
+        <v>150.3822913328037</v>
       </c>
       <c r="S48" t="n">
-        <v>-8.093569678461682</v>
+        <v>-8.09366024118618</v>
       </c>
     </row>
     <row r="49">
@@ -3494,37 +3494,37 @@
         <v>42369</v>
       </c>
       <c r="B49" t="n">
-        <v>180.5756530761719</v>
+        <v>180.5756225585938</v>
       </c>
       <c r="C49" t="n">
-        <v>48.13893127441406</v>
+        <v>48.1389274597168</v>
       </c>
       <c r="D49" t="n">
-        <v>86.45044708251953</v>
+        <v>86.45047760009766</v>
       </c>
       <c r="E49" t="n">
         <v>91.93438720703125</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0123431169223116</v>
+        <v>0.012</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.009929551424917804</v>
+        <v>-0.01</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.001311462348383086</v>
+        <v>-0.001</v>
       </c>
       <c r="I49" t="n">
-        <v>0.00480705408169313</v>
+        <v>0.005</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.01728262033033645</v>
+        <v>-0.01728254159536957</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.02331883919556221</v>
+        <v>-0.02331891659119301</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0002188161990690496</v>
+        <v>-0.0002182868435589569</v>
       </c>
       <c r="M49" t="n">
         <v>-0.001917143550533962</v>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>180.5756530761719</v>
+        <v>180.5756225585938</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3543,13 +3543,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>-1.728262033033645</v>
+        <v>-1.728254159536957</v>
       </c>
       <c r="R49" t="n">
-        <v>147.7836417906644</v>
+        <v>147.7833031276376</v>
       </c>
       <c r="S49" t="n">
-        <v>-9.681953619625356</v>
+        <v>-9.682035380946054</v>
       </c>
     </row>
     <row r="50">
@@ -3557,40 +3557,40 @@
         <v>42400</v>
       </c>
       <c r="B50" t="n">
-        <v>171.5853576660156</v>
+        <v>171.5853729248047</v>
       </c>
       <c r="C50" t="n">
-        <v>45.48276901245117</v>
+        <v>45.48275756835938</v>
       </c>
       <c r="D50" t="n">
-        <v>86.46936798095703</v>
+        <v>86.46935272216797</v>
       </c>
       <c r="E50" t="n">
-        <v>93.07492828369141</v>
+        <v>93.074951171875</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.02115221820305768</v>
+        <v>-0.021</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.08501191292113941</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.0008745874558364619</v>
+        <v>-0.001</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0003760578883145183</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.04978686360538254</v>
+        <v>-0.04978661851696997</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.05517700936943415</v>
+        <v>-0.05517717222886065</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0002188640900773198</v>
+        <v>0.000218334503108597</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01240603338217428</v>
+        <v>0.01240628234433383</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>93.07492828369141</v>
+        <v>93.074951171875</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -3606,13 +3606,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>-4.978686360538253</v>
+        <v>-4.978661851696997</v>
       </c>
       <c r="R50" t="n">
-        <v>140.4259577737258</v>
+        <v>140.4256721916441</v>
       </c>
       <c r="S50" t="n">
-        <v>-14.17860587586969</v>
+        <v>-14.17866143066408</v>
       </c>
     </row>
     <row r="51">
@@ -3620,40 +3620,40 @@
         <v>42429</v>
       </c>
       <c r="B51" t="n">
-        <v>171.4436492919922</v>
+        <v>171.4436645507812</v>
       </c>
       <c r="C51" t="n">
-        <v>43.96612167358398</v>
+        <v>43.96612930297852</v>
       </c>
       <c r="D51" t="n">
-        <v>86.46936798095703</v>
+        <v>86.46935272216797</v>
       </c>
       <c r="E51" t="n">
-        <v>93.90061187744141</v>
+        <v>93.90059661865234</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.06221331969409194</v>
+        <v>-0.062</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1549234999494441</v>
+        <v>-0.155</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0008745874558364619</v>
+        <v>-0.001</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01473825377416293</v>
+        <v>0.015</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.0008258768460841504</v>
+        <v>-0.0008258767726404548</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.03334553660204809</v>
+        <v>-0.03334512563582825</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.008871170883240742</v>
+        <v>0.008870758849528482</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>93.90061187744141</v>
+        <v>93.90059661865234</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -3669,13 +3669,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>0.8871170883240742</v>
+        <v>0.8870758849528482</v>
       </c>
       <c r="R51" t="n">
-        <v>141.6717004415793</v>
+        <v>141.6713544659392</v>
       </c>
       <c r="S51" t="n">
-        <v>-13.41726962315658</v>
+        <v>-13.41736103207176</v>
       </c>
     </row>
     <row r="52">
@@ -3683,40 +3683,40 @@
         <v>42460</v>
       </c>
       <c r="B52" t="n">
-        <v>182.9759979248047</v>
+        <v>182.9759826660156</v>
       </c>
       <c r="C52" t="n">
-        <v>46.86003494262695</v>
+        <v>46.86002731323242</v>
       </c>
       <c r="D52" t="n">
-        <v>86.46936798095703</v>
+        <v>86.46935272216797</v>
       </c>
       <c r="E52" t="n">
-        <v>94.721923828125</v>
+        <v>94.72193908691406</v>
       </c>
       <c r="F52" t="n">
-        <v>0.02044695205730673</v>
+        <v>0.02</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.09274919569145723</v>
+        <v>-0.093</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.0004371764942449063</v>
+        <v>-0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01649228145246306</v>
+        <v>0.016</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06726611735364618</v>
+        <v>0.06726593336330922</v>
       </c>
       <c r="K52" t="n">
-        <v>0.06582143611683877</v>
+        <v>0.0658210776370951</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.008746609146227602</v>
+        <v>0.00874693556631323</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>182.9759979248047</v>
+        <v>182.9759826660156</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>0.8746609146227602</v>
+        <v>0.874693556631323</v>
       </c>
       <c r="R52" t="n">
-        <v>142.9108474324232</v>
+        <v>142.9105446750451</v>
       </c>
       <c r="S52" t="n">
-        <v>-12.65996432173712</v>
+        <v>-12.66002826785792</v>
       </c>
     </row>
     <row r="53">
@@ -3746,40 +3746,40 @@
         <v>42490</v>
       </c>
       <c r="B53" t="n">
-        <v>183.6971282958984</v>
+        <v>183.6971588134766</v>
       </c>
       <c r="C53" t="n">
-        <v>47.90118408203125</v>
+        <v>47.90118789672852</v>
       </c>
       <c r="D53" t="n">
-        <v>86.50718688964844</v>
+        <v>86.50719451904297</v>
       </c>
       <c r="E53" t="n">
         <v>94.96340942382812</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01090477542405011</v>
+        <v>0.011</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09880621503946996</v>
+        <v>-0.099</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.0002188490199231952</v>
+        <v>-0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.02570305362923886</v>
+        <v>0.026</v>
       </c>
       <c r="J53" t="n">
-        <v>0.00394112003362368</v>
+        <v>0.00394137053919974</v>
       </c>
       <c r="K53" t="n">
-        <v>0.02221827492615036</v>
+        <v>0.02221852276219405</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0004373677011231258</v>
+        <v>0.0004376324753647687</v>
       </c>
       <c r="M53" t="n">
-        <v>0.002549416079653311</v>
+        <v>0.002549254578630311</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>183.6971282958984</v>
+        <v>183.6971588134766</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -3795,13 +3795,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>0.394112003362368</v>
+        <v>0.394137053919974</v>
       </c>
       <c r="R53" t="n">
-        <v>143.4740762362613</v>
+        <v>143.4738080855683</v>
       </c>
       <c r="S53" t="n">
-        <v>-12.31574675738811</v>
+        <v>-12.31578907637832</v>
       </c>
     </row>
     <row r="54">
@@ -3815,34 +3815,34 @@
         <v>47.86019897460938</v>
       </c>
       <c r="D54" t="n">
-        <v>86.50718688964844</v>
+        <v>86.50719451904297</v>
       </c>
       <c r="E54" t="n">
-        <v>94.97628021240234</v>
+        <v>94.97634124755859</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01298869887471921</v>
+        <v>0.013</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.09889980610162563</v>
+        <v>-0.099</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03320503408886721</v>
+        <v>0.033</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01701153148887657</v>
+        <v>0.01701136253292179</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0008556178350765942</v>
+        <v>-0.0008556974037368104</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0001355341878761518</v>
+        <v>0.0001361769107588451</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -3858,13 +3858,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>1.701153148887657</v>
+        <v>1.701136253292179</v>
       </c>
       <c r="R54" t="n">
-        <v>145.9147900019919</v>
+        <v>145.9144930488907</v>
       </c>
       <c r="S54" t="n">
-        <v>-10.8241033222728</v>
+        <v>-10.82416117594341</v>
       </c>
     </row>
     <row r="55">
@@ -3872,40 +3872,40 @@
         <v>42551</v>
       </c>
       <c r="B55" t="n">
-        <v>187.4714813232422</v>
+        <v>187.4714660644531</v>
       </c>
       <c r="C55" t="n">
         <v>46.70226669311523</v>
       </c>
       <c r="D55" t="n">
-        <v>86.48829650878906</v>
+        <v>86.48827362060547</v>
       </c>
       <c r="E55" t="n">
         <v>96.81422424316406</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03143128663930428</v>
+        <v>0.031</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1006592745621775</v>
+        <v>-0.101</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.0002183677627093372</v>
+        <v>-0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.06440534261335906</v>
+        <v>0.064</v>
       </c>
       <c r="J55" t="n">
-        <v>0.003475946114749329</v>
+        <v>0.003475864439244969</v>
       </c>
       <c r="K55" t="n">
         <v>-0.0241940548995303</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0002183677627093372</v>
+        <v>-0.0002187205184804863</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01935161101962923</v>
+        <v>0.019350955948229</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>187.4714813232422</v>
+        <v>187.4714660644531</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>0.3475946114749329</v>
+        <v>0.3475864439244969</v>
       </c>
       <c r="R55" t="n">
-        <v>146.4219819493838</v>
+        <v>146.4216720464498</v>
       </c>
       <c r="S55" t="n">
-        <v>-10.51413271068657</v>
+        <v>-10.51419804893503</v>
       </c>
     </row>
     <row r="56">
@@ -3938,37 +3938,37 @@
         <v>194.3088073730469</v>
       </c>
       <c r="C56" t="n">
-        <v>48.55964660644531</v>
+        <v>48.55965042114258</v>
       </c>
       <c r="D56" t="n">
-        <v>86.526123046875</v>
+        <v>86.52613830566406</v>
       </c>
       <c r="E56" t="n">
-        <v>97.34136199951172</v>
+        <v>97.34133148193359</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05221329464102742</v>
+        <v>0.052</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07215212902616364</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0002188969253007489</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.06254739675730803</v>
+        <v>0.063</v>
       </c>
       <c r="J56" t="n">
-        <v>0.03647128620067619</v>
+        <v>0.03647137056176364</v>
       </c>
       <c r="K56" t="n">
-        <v>0.03977065878911379</v>
+        <v>0.03977074047031537</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0004373601933771454</v>
+        <v>0.0004378013743768783</v>
       </c>
       <c r="M56" t="n">
-        <v>0.005444837888941567</v>
+        <v>0.005444522671024243</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -3984,13 +3984,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>3.647128620067619</v>
+        <v>3.647137056176364</v>
       </c>
       <c r="R56" t="n">
-        <v>151.76217995913</v>
+        <v>151.7618711059289</v>
       </c>
       <c r="S56" t="n">
-        <v>-7.250468033862298</v>
+        <v>-7.250528205961156</v>
       </c>
     </row>
     <row r="57">
@@ -3998,40 +3998,40 @@
         <v>42613</v>
       </c>
       <c r="B57" t="n">
-        <v>194.5415191650391</v>
+        <v>194.5414733886719</v>
       </c>
       <c r="C57" t="n">
-        <v>48.81901550292969</v>
+        <v>48.81901168823242</v>
       </c>
       <c r="D57" t="n">
-        <v>86.526123046875</v>
+        <v>86.52613830566406</v>
       </c>
       <c r="E57" t="n">
         <v>97.13164520263672</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1581233447803041</v>
+        <v>0.158</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03644874262192221</v>
+        <v>0.036</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0002188969253007489</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0565234847375844</v>
+        <v>0.057</v>
       </c>
       <c r="J57" t="n">
-        <v>0.001197638929178346</v>
+        <v>0.001197403343525805</v>
       </c>
       <c r="K57" t="n">
-        <v>0.005341243493521386</v>
+        <v>0.005341085960061109</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.002154446913081531</v>
+        <v>-0.00215413407752485</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>194.5415191650391</v>
+        <v>194.5414733886719</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>0.1197638929178346</v>
+        <v>0.1197403343525805</v>
       </c>
       <c r="R57" t="n">
-        <v>151.9439362538261</v>
+        <v>151.9435912778109</v>
       </c>
       <c r="S57" t="n">
-        <v>-7.139387583716574</v>
+        <v>-7.139469678324728</v>
       </c>
     </row>
     <row r="58">
@@ -4061,40 +4061,40 @@
         <v>42643</v>
       </c>
       <c r="B58" t="n">
-        <v>194.5527954101562</v>
+        <v>194.5527801513672</v>
       </c>
       <c r="C58" t="n">
         <v>49.47160720825195</v>
       </c>
       <c r="D58" t="n">
-        <v>86.54505920410156</v>
+        <v>86.54503631591797</v>
       </c>
       <c r="E58" t="n">
-        <v>97.18179321289062</v>
+        <v>97.18180084228516</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1500414774729562</v>
+        <v>0.15</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05870584455087546</v>
+        <v>0.059</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0006563049291499201</v>
+        <v>0.001</v>
       </c>
       <c r="I58" t="n">
-        <v>0.05085051426683873</v>
+        <v>0.051</v>
       </c>
       <c r="J58" t="n">
-        <v>5.796318012518675e-05</v>
+        <v>5.8120063030076e-05</v>
       </c>
       <c r="K58" t="n">
-        <v>0.01336757201265359</v>
+        <v>0.01336765119677419</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0002188490199233062</v>
+        <v>0.0002184081090865764</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0005162891058756447</v>
+        <v>0.0005163676528261441</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>194.5527954101562</v>
+        <v>194.5527801513672</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>0.005796318012518675</v>
+        <v>0.0058120063030076</v>
       </c>
       <c r="R58" t="n">
-        <v>151.9527434075721</v>
+        <v>151.952422248913</v>
       </c>
       <c r="S58" t="n">
-        <v>-7.134005087312557</v>
+        <v>-7.13407261844942</v>
       </c>
     </row>
     <row r="59">
@@ -4127,37 +4127,37 @@
         <v>191.1798248291016</v>
       </c>
       <c r="C59" t="n">
-        <v>48.37558364868164</v>
+        <v>48.37558746337891</v>
       </c>
       <c r="D59" t="n">
-        <v>86.56397247314453</v>
+        <v>86.56398773193359</v>
       </c>
       <c r="E59" t="n">
-        <v>96.38764953613281</v>
+        <v>96.38765716552734</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04423006337142366</v>
+        <v>0.044</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0259055047526916</v>
+        <v>-0.026</v>
       </c>
       <c r="H59" t="n">
-        <v>0.001313184540464363</v>
+        <v>0.001</v>
       </c>
       <c r="I59" t="n">
-        <v>0.04235818060024288</v>
+        <v>0.042</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.01733704506246636</v>
+        <v>-0.01733696799213758</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.02215459778689977</v>
+        <v>-0.02215452067807955</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0002185366699947178</v>
+        <v>0.0002189775037639841</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.008171733104555212</v>
+        <v>-0.008171732463021719</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4173,13 +4173,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>-1.733704506246636</v>
+        <v>-1.733696799213758</v>
       </c>
       <c r="R59" t="n">
-        <v>149.3183318477496</v>
+        <v>149.3180279680558</v>
       </c>
       <c r="S59" t="n">
-        <v>-8.744027025884593</v>
+        <v>-8.744086229023541</v>
       </c>
     </row>
     <row r="60">
@@ -4187,40 +4187,40 @@
         <v>42704</v>
       </c>
       <c r="B60" t="n">
-        <v>198.2225494384766</v>
+        <v>198.2226104736328</v>
       </c>
       <c r="C60" t="n">
         <v>47.51382827758789</v>
       </c>
       <c r="D60" t="n">
-        <v>86.526123046875</v>
+        <v>86.52613830566406</v>
       </c>
       <c r="E60" t="n">
-        <v>93.91484069824219</v>
+        <v>93.91481018066406</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0685650436199845</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.04606773240652307</v>
+        <v>-0.046</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0008753681086604015</v>
+        <v>0.001</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01602322384830579</v>
+        <v>0.016</v>
       </c>
       <c r="J60" t="n">
-        <v>0.03683822085134025</v>
+        <v>0.03683854010655629</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.01781384959305266</v>
+        <v>-0.01781392704416007</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.000437242252038228</v>
+        <v>-0.0004372421749647692</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.02565483077750164</v>
+        <v>-0.02565522451299584</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>198.2225494384766</v>
+        <v>198.2226104736328</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -4236,13 +4236,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>3.683822085134025</v>
+        <v>3.683854010655629</v>
       </c>
       <c r="R60" t="n">
-        <v>154.8189535335107</v>
+        <v>154.8186861299889</v>
       </c>
       <c r="S60" t="n">
-        <v>-5.382319339460195</v>
+        <v>-5.382351589610978</v>
       </c>
     </row>
     <row r="61">
@@ -4253,37 +4253,37 @@
         <v>202.2409057617188</v>
       </c>
       <c r="C61" t="n">
-        <v>48.7996711730957</v>
+        <v>48.79967498779297</v>
       </c>
       <c r="D61" t="n">
-        <v>86.54508209228516</v>
+        <v>86.54508972167969</v>
       </c>
       <c r="E61" t="n">
-        <v>94.15348815917969</v>
+        <v>94.15351867675781</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1199788139567624</v>
+        <v>0.12</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01372568690640685</v>
+        <v>0.014</v>
       </c>
       <c r="H61" t="n">
-        <v>0.001094673456983886</v>
+        <v>0.001</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02413787723576322</v>
+        <v>0.024</v>
       </c>
       <c r="J61" t="n">
-        <v>0.02027194350302408</v>
+        <v>0.02027162934886495</v>
       </c>
       <c r="K61" t="n">
-        <v>0.02706249826883211</v>
+        <v>0.02706257855487526</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0002191135433156077</v>
+        <v>0.0002190253302265521</v>
       </c>
       <c r="M61" t="n">
-        <v>0.002541104889953516</v>
+        <v>0.002541755614844377</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4299,13 +4299,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>2.027194350302408</v>
+        <v>2.027162934886495</v>
       </c>
       <c r="R61" t="n">
-        <v>157.9574346127393</v>
+        <v>157.9571131514943</v>
       </c>
       <c r="S61" t="n">
-        <v>-3.464235062722551</v>
+        <v>-3.464297691174349</v>
       </c>
     </row>
     <row r="62">
@@ -4313,40 +4313,40 @@
         <v>42766</v>
       </c>
       <c r="B62" t="n">
-        <v>205.8599548339844</v>
+        <v>205.8599700927734</v>
       </c>
       <c r="C62" t="n">
-        <v>50.40576171875</v>
+        <v>50.40575790405273</v>
       </c>
       <c r="D62" t="n">
-        <v>86.58293151855469</v>
+        <v>86.58295440673828</v>
       </c>
       <c r="E62" t="n">
-        <v>94.35391998291016</v>
+        <v>94.35389709472656</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2001859984150813</v>
+        <v>0.2</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1094386983593305</v>
+        <v>0.109</v>
       </c>
       <c r="H62" t="n">
-        <v>0.001752091073780493</v>
+        <v>0.002</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01496927309196083</v>
+        <v>0.015</v>
       </c>
       <c r="J62" t="n">
-        <v>0.01789474319566975</v>
+        <v>0.01789481864424936</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0329119132782143</v>
+        <v>0.03291175436437888</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0004373376898432202</v>
+        <v>0.0004375139615704349</v>
       </c>
       <c r="M62" t="n">
-        <v>0.002128777463789921</v>
+        <v>0.002128209553768023</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="O62" t="n">
-        <v>205.8599548339844</v>
+        <v>205.8599700927734</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -4362,13 +4362,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>1.789474319566975</v>
+        <v>1.789481864424936</v>
       </c>
       <c r="R62" t="n">
-        <v>160.7840423409811</v>
+        <v>160.7837270449095</v>
       </c>
       <c r="S62" t="n">
-        <v>-1.736752339972429</v>
+        <v>-1.736808805662671</v>
       </c>
     </row>
     <row r="63">
@@ -4376,40 +4376,40 @@
         <v>42794</v>
       </c>
       <c r="B63" t="n">
-        <v>213.9485015869141</v>
+        <v>213.9484710693359</v>
       </c>
       <c r="C63" t="n">
-        <v>51.00593566894531</v>
+        <v>51.00593185424805</v>
       </c>
       <c r="D63" t="n">
-        <v>86.62651062011719</v>
+        <v>86.62648010253906</v>
       </c>
       <c r="E63" t="n">
-        <v>94.96327209472656</v>
+        <v>94.96331024169922</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2479231658358498</v>
+        <v>0.248</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1601190582063787</v>
+        <v>0.16</v>
       </c>
       <c r="H63" t="n">
-        <v>0.001817321472671773</v>
+        <v>0.002</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01131686147766686</v>
+        <v>0.011</v>
       </c>
       <c r="J63" t="n">
-        <v>0.03929150163980499</v>
+        <v>0.03929127636090346</v>
       </c>
       <c r="K63" t="n">
-        <v>0.01190685210837827</v>
+        <v>0.01190685300948635</v>
       </c>
       <c r="L63" t="n">
-        <v>0.000503322084366653</v>
+        <v>0.0005027051351969014</v>
       </c>
       <c r="M63" t="n">
-        <v>0.006458153640323427</v>
+        <v>0.006458802081707793</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>213.9485015869141</v>
+        <v>213.9484710693359</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4425,10 +4425,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>3.929150163980499</v>
+        <v>3.929127636090346</v>
       </c>
       <c r="R63" t="n">
-        <v>167.1014888042762</v>
+        <v>167.1011248985671</v>
       </c>
       <c r="S63" t="n">
         <v>-0</v>
@@ -4439,40 +4439,40 @@
         <v>42825</v>
       </c>
       <c r="B64" t="n">
-        <v>214.2159118652344</v>
+        <v>214.2159271240234</v>
       </c>
       <c r="C64" t="n">
-        <v>52.6542854309082</v>
+        <v>52.65429306030273</v>
       </c>
       <c r="D64" t="n">
-        <v>86.61138153076172</v>
+        <v>86.61135101318359</v>
       </c>
       <c r="E64" t="n">
-        <v>94.91080474853516</v>
+        <v>94.91082000732422</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1707323053008731</v>
+        <v>0.171</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1236501529581751</v>
+        <v>0.124</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001642356745754858</v>
+        <v>0.002</v>
       </c>
       <c r="I64" t="n">
-        <v>0.001994057054340193</v>
+        <v>0.002</v>
       </c>
       <c r="J64" t="n">
-        <v>0.00124988151979033</v>
+        <v>0.001250095657850281</v>
       </c>
       <c r="K64" t="n">
-        <v>0.03231682235302036</v>
+        <v>0.03231704913783284</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.0001746473365620282</v>
+        <v>-0.0001746473980884788</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.0005525014569744968</v>
+        <v>-0.0005527422563661455</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>214.2159118652344</v>
+        <v>214.2159271240234</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -4488,10 +4488,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>0.124988151979033</v>
+        <v>0.1250095657850281</v>
       </c>
       <c r="R64" t="n">
-        <v>167.3103458670622</v>
+        <v>167.3100172892247</v>
       </c>
       <c r="S64" t="n">
         <v>-0</v>
@@ -4502,40 +4502,40 @@
         <v>42855</v>
       </c>
       <c r="B65" t="n">
-        <v>216.3423004150391</v>
+        <v>216.3422698974609</v>
       </c>
       <c r="C65" t="n">
-        <v>53.93070220947266</v>
+        <v>53.93069458007812</v>
       </c>
       <c r="D65" t="n">
-        <v>86.67578887939453</v>
+        <v>86.67577362060547</v>
       </c>
       <c r="E65" t="n">
-        <v>95.77165222167969</v>
+        <v>95.77169036865234</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1713538719581538</v>
+        <v>0.171</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1210773106343674</v>
+        <v>0.121</v>
       </c>
       <c r="H65" t="n">
-        <v>0.002167835165841403</v>
+        <v>0.002</v>
       </c>
       <c r="I65" t="n">
-        <v>0.00841987215791562</v>
+        <v>0.008</v>
       </c>
       <c r="J65" t="n">
-        <v>0.00992638003073476</v>
+        <v>0.009926165631028994</v>
       </c>
       <c r="K65" t="n">
-        <v>0.02424146046458731</v>
+        <v>0.02424116716017033</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0007436360844785828</v>
+        <v>0.0007438125218952596</v>
       </c>
       <c r="M65" t="n">
-        <v>0.009070068212205573</v>
+        <v>0.00907030790864205</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>216.3423004150391</v>
+        <v>216.3422698974609</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -4551,10 +4551,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>0.992638003073476</v>
+        <v>0.9926165631028994</v>
       </c>
       <c r="R65" t="n">
-        <v>168.9711319432123</v>
+        <v>168.9707642325679</v>
       </c>
       <c r="S65" t="n">
         <v>-0</v>
@@ -4565,40 +4565,40 @@
         <v>42886</v>
       </c>
       <c r="B66" t="n">
-        <v>219.3954925537109</v>
+        <v>219.3954620361328</v>
       </c>
       <c r="C66" t="n">
-        <v>55.84109497070312</v>
+        <v>55.84109878540039</v>
       </c>
       <c r="D66" t="n">
-        <v>86.68904876708984</v>
+        <v>86.68907928466797</v>
       </c>
       <c r="E66" t="n">
-        <v>96.42971801757812</v>
+        <v>96.42970275878906</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1743551494322777</v>
+        <v>0.174</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1667543421691111</v>
+        <v>0.167</v>
       </c>
       <c r="H66" t="n">
-        <v>0.002102274781786484</v>
+        <v>0.002</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01530316624240657</v>
+        <v>0.015</v>
       </c>
       <c r="J66" t="n">
-        <v>0.01411278392073356</v>
+        <v>0.01411278591150489</v>
       </c>
       <c r="K66" t="n">
-        <v>0.03542310192458276</v>
+        <v>0.03542331913574071</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0001529826017938607</v>
+        <v>0.0001535107620813658</v>
       </c>
       <c r="M66" t="n">
-        <v>0.006871196023383153</v>
+        <v>0.00687063565030388</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>219.3954925537109</v>
+        <v>219.3954620361328</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -4614,10 +4614,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>1.411278392073356</v>
+        <v>1.411278591150489</v>
       </c>
       <c r="R66" t="n">
-        <v>171.3557850171686</v>
+        <v>171.3554124534855</v>
       </c>
       <c r="S66" t="n">
         <v>-0</v>
@@ -4628,40 +4628,40 @@
         <v>42916</v>
       </c>
       <c r="B67" t="n">
-        <v>220.7941131591797</v>
+        <v>220.7941284179688</v>
       </c>
       <c r="C67" t="n">
         <v>56.00640869140625</v>
       </c>
       <c r="D67" t="n">
-        <v>86.77822875976562</v>
+        <v>86.77824401855469</v>
       </c>
       <c r="E67" t="n">
-        <v>96.41207885742188</v>
+        <v>96.41209411621094</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1777477384865911</v>
+        <v>0.178</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1992224929772546</v>
+        <v>0.199</v>
       </c>
       <c r="H67" t="n">
-        <v>0.003352271494295067</v>
+        <v>0.003</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.004153784104411473</v>
+        <v>-0.004</v>
       </c>
       <c r="J67" t="n">
-        <v>0.006374883044264701</v>
+        <v>0.006375092578740693</v>
       </c>
       <c r="K67" t="n">
-        <v>0.002960431216290749</v>
+        <v>0.002960362700618724</v>
       </c>
       <c r="L67" t="n">
-        <v>0.001028734239723716</v>
+        <v>0.00102855786014211</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.0001829224487935877</v>
+        <v>-0.0001826060028637944</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>0.6374883044264701</v>
+        <v>0.6375092578740693</v>
       </c>
       <c r="R67" t="n">
-        <v>172.4481581056112</v>
+        <v>172.4478190717447</v>
       </c>
       <c r="S67" t="n">
         <v>-0</v>
@@ -4691,40 +4691,40 @@
         <v>42947</v>
       </c>
       <c r="B68" t="n">
-        <v>225.3323516845703</v>
+        <v>225.3323822021484</v>
       </c>
       <c r="C68" t="n">
-        <v>57.49246978759766</v>
+        <v>57.49247741699219</v>
       </c>
       <c r="D68" t="n">
-        <v>86.80672454833984</v>
+        <v>86.80670166015625</v>
       </c>
       <c r="E68" t="n">
-        <v>96.73409271240234</v>
+        <v>96.734130859375</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1596610299396382</v>
+        <v>0.16</v>
       </c>
       <c r="G68" t="n">
-        <v>0.183955687601044</v>
+        <v>0.184</v>
       </c>
       <c r="H68" t="n">
-        <v>0.00324296861553397</v>
+        <v>0.003</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.006238553423080551</v>
+        <v>-0.006</v>
       </c>
       <c r="J68" t="n">
-        <v>0.02055416451306757</v>
+        <v>0.02055423220126884</v>
       </c>
       <c r="K68" t="n">
-        <v>0.02653376874028046</v>
+        <v>0.02653390496387886</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0003283748583196022</v>
+        <v>0.0003279352091460908</v>
       </c>
       <c r="M68" t="n">
-        <v>0.003339974189921602</v>
+        <v>0.00334021106082294</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>57.49246978759766</v>
+        <v>57.49247741699219</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -4740,10 +4740,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>2.653376874028046</v>
+        <v>2.653390496387886</v>
       </c>
       <c r="R68" t="n">
-        <v>177.0238576524728</v>
+        <v>177.0235331142226</v>
       </c>
       <c r="S68" t="n">
         <v>-0</v>
@@ -4760,34 +4760,34 @@
         <v>57.46670150756836</v>
       </c>
       <c r="D69" t="n">
-        <v>86.90549468994141</v>
+        <v>86.90548706054688</v>
       </c>
       <c r="E69" t="n">
         <v>97.64469909667969</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1616535052076271</v>
+        <v>0.162</v>
       </c>
       <c r="G69" t="n">
-        <v>0.177137656619063</v>
+        <v>0.177</v>
       </c>
       <c r="H69" t="n">
-        <v>0.004384475227913409</v>
+        <v>0.004</v>
       </c>
       <c r="I69" t="n">
-        <v>0.005282046782720817</v>
+        <v>0.005</v>
       </c>
       <c r="J69" t="n">
-        <v>0.002917849820492924</v>
+        <v>0.002917713991707371</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.0004482026972314479</v>
+        <v>-0.0004483353402372492</v>
       </c>
       <c r="L69" t="n">
-        <v>0.001137816708503436</v>
+        <v>0.001137992787438868</v>
       </c>
       <c r="M69" t="n">
-        <v>0.009413500026145272</v>
+        <v>0.009413101965307424</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -4803,13 +4803,13 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>-0.04482026972314479</v>
+        <v>-0.04483353402372492</v>
       </c>
       <c r="R69" t="n">
-        <v>176.9445150819987</v>
+        <v>176.9441672082738</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.04482026972314251</v>
+        <v>-0.04483353402372749</v>
       </c>
     </row>
     <row r="70">
@@ -4817,40 +4817,40 @@
         <v>43008</v>
       </c>
       <c r="B70" t="n">
-        <v>230.5433959960938</v>
+        <v>230.5433502197266</v>
       </c>
       <c r="C70" t="n">
-        <v>58.82390213012695</v>
+        <v>58.82391738891602</v>
       </c>
       <c r="D70" t="n">
-        <v>86.96821594238281</v>
+        <v>86.96820831298828</v>
       </c>
       <c r="E70" t="n">
-        <v>97.08658599853516</v>
+        <v>97.08655548095703</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1939335194984195</v>
+        <v>0.194</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1983664799110088</v>
+        <v>0.198</v>
       </c>
       <c r="H70" t="n">
-        <v>0.005109357497368849</v>
+        <v>0.005</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.002045263532755137</v>
+        <v>-0.002</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02014939431361729</v>
+        <v>0.02014919175421181</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02361716588831619</v>
+        <v>0.02361743141232675</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0007217179151350894</v>
+        <v>0.0007217179784944072</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.005715754191550459</v>
+        <v>-0.005716066728517766</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>58.82390213012695</v>
+        <v>58.82391738891602</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>2.361716588831619</v>
+        <v>2.361743141232675</v>
       </c>
       <c r="R70" t="n">
-        <v>181.1234430477179</v>
+        <v>181.1231339411265</v>
       </c>
       <c r="S70" t="n">
         <v>-0</v>
@@ -4880,40 +4880,40 @@
         <v>43039</v>
       </c>
       <c r="B71" t="n">
-        <v>235.9758758544922</v>
+        <v>235.9758911132812</v>
       </c>
       <c r="C71" t="n">
-        <v>59.81173706054688</v>
+        <v>59.81174850463867</v>
       </c>
       <c r="D71" t="n">
-        <v>87.02911376953125</v>
+        <v>87.02908325195312</v>
       </c>
       <c r="E71" t="n">
-        <v>97.18158721923828</v>
+        <v>97.18157196044922</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2343136942689139</v>
+        <v>0.234</v>
       </c>
       <c r="G71" t="n">
-        <v>0.236403419851595</v>
+        <v>0.236</v>
       </c>
       <c r="H71" t="n">
-        <v>0.005373382056039766</v>
+        <v>0.005</v>
       </c>
       <c r="I71" t="n">
-        <v>0.008236923370642524</v>
+        <v>0.008</v>
       </c>
       <c r="J71" t="n">
-        <v>0.02356380600245211</v>
+        <v>0.0235640754260622</v>
       </c>
       <c r="K71" t="n">
-        <v>0.01679308741257413</v>
+        <v>0.01679301820705992</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0007002308428263326</v>
+        <v>0.0006999677255137282</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0009785205620944648</v>
+        <v>0.0009786780365363956</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>59.81173706054688</v>
+        <v>59.81174850463867</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -4929,10 +4929,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>1.679308741257413</v>
+        <v>1.679301820705992</v>
       </c>
       <c r="R71" t="n">
-        <v>184.1650648592846</v>
+        <v>184.1647380271196</v>
       </c>
       <c r="S71" t="n">
         <v>-0</v>
@@ -4943,40 +4943,40 @@
         <v>43069</v>
       </c>
       <c r="B72" t="n">
-        <v>243.1887512207031</v>
+        <v>243.188720703125</v>
       </c>
       <c r="C72" t="n">
-        <v>60.22406387329102</v>
+        <v>60.22407150268555</v>
       </c>
       <c r="D72" t="n">
-        <v>87.07668304443359</v>
+        <v>87.07669067382812</v>
       </c>
       <c r="E72" t="n">
-        <v>97.03746032714844</v>
+        <v>97.03745269775391</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2268470560468852</v>
+        <v>0.227</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2675060304854133</v>
+        <v>0.268</v>
       </c>
       <c r="H72" t="n">
-        <v>0.00636293385363329</v>
+        <v>0.006</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03324948012145956</v>
+        <v>0.033</v>
       </c>
       <c r="J72" t="n">
-        <v>0.03056615571440258</v>
+        <v>0.03056595975044418</v>
       </c>
       <c r="K72" t="n">
-        <v>0.006893744154709003</v>
+        <v>0.006893679057299318</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0005465903631780566</v>
+        <v>0.0005470288792674971</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.001483067896027479</v>
+        <v>-0.001482989622291431</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>60.22406387329102</v>
+        <v>60.22407150268555</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -4992,10 +4992,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>0.6893744154709003</v>
+        <v>0.6893679057299318</v>
       </c>
       <c r="R72" t="n">
-        <v>185.4346516986599</v>
+        <v>185.4343106247501</v>
       </c>
       <c r="S72" t="n">
         <v>-0</v>
@@ -5006,40 +5006,40 @@
         <v>43100</v>
       </c>
       <c r="B73" t="n">
-        <v>246.1380462646484</v>
+        <v>246.1380920410156</v>
       </c>
       <c r="C73" t="n">
-        <v>61.03640747070312</v>
+        <v>61.03640365600586</v>
       </c>
       <c r="D73" t="n">
-        <v>87.1414794921875</v>
+        <v>87.14148712158203</v>
       </c>
       <c r="E73" t="n">
-        <v>97.49855041503906</v>
+        <v>97.49853515625</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2126054139011526</v>
+        <v>0.213</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2551026131249823</v>
+        <v>0.255</v>
       </c>
       <c r="H73" t="n">
-        <v>0.006451017121233749</v>
+        <v>0.006</v>
       </c>
       <c r="I73" t="n">
-        <v>0.03763954669500968</v>
+        <v>0.038</v>
       </c>
       <c r="J73" t="n">
-        <v>0.01212759648273654</v>
+        <v>0.01212791172782679</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0134886878295235</v>
+        <v>0.01348849609552039</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0007441308682007985</v>
+        <v>0.0007441308030022853</v>
       </c>
       <c r="M73" t="n">
-        <v>0.004751671017936054</v>
+        <v>0.004751592768332813</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>61.03640747070312</v>
+        <v>61.03640365600586</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -5055,10 +5055,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>1.34886878295235</v>
+        <v>1.348849609552039</v>
       </c>
       <c r="R73" t="n">
-        <v>187.9359218281996</v>
+        <v>187.9355405995876</v>
       </c>
       <c r="S73" t="n">
         <v>-0</v>
@@ -5072,37 +5072,37 @@
         <v>260.01025390625</v>
       </c>
       <c r="C74" t="n">
-        <v>64.10081481933594</v>
+        <v>64.10079956054688</v>
       </c>
       <c r="D74" t="n">
-        <v>87.25587463378906</v>
+        <v>87.25589752197266</v>
       </c>
       <c r="E74" t="n">
         <v>96.40162658691406</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2630443551585111</v>
+        <v>0.263</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2716961838013774</v>
+        <v>0.272</v>
       </c>
       <c r="H74" t="n">
-        <v>0.007772237592696518</v>
+        <v>0.008</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02170240096410203</v>
+        <v>0.022</v>
       </c>
       <c r="J74" t="n">
-        <v>0.05635946109154588</v>
+        <v>0.0563592646315092</v>
       </c>
       <c r="K74" t="n">
-        <v>0.05020622077247427</v>
+        <v>0.05020603641413079</v>
       </c>
       <c r="L74" t="n">
-        <v>0.001312751886566543</v>
+        <v>0.001312926875243647</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.01125066807101782</v>
+        <v>-0.01125051332902638</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>64.10081481933594</v>
+        <v>64.10079956054688</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -5118,10 +5118,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>5.020622077247427</v>
+        <v>5.020603641413079</v>
       </c>
       <c r="R74" t="n">
-        <v>197.3714742105846</v>
+        <v>197.3710391944398</v>
       </c>
       <c r="S74" t="n">
         <v>-0</v>
@@ -5132,40 +5132,40 @@
         <v>43159</v>
       </c>
       <c r="B75" t="n">
-        <v>250.55615234375</v>
+        <v>250.5561370849609</v>
       </c>
       <c r="C75" t="n">
-        <v>61.00167846679688</v>
+        <v>61.00168609619141</v>
       </c>
       <c r="D75" t="n">
-        <v>87.32842254638672</v>
+        <v>87.32840728759766</v>
       </c>
       <c r="E75" t="n">
-        <v>95.42919158935547</v>
+        <v>95.42919921875</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1711049644438127</v>
+        <v>0.171</v>
       </c>
       <c r="G75" t="n">
-        <v>0.195972148471681</v>
+        <v>0.196</v>
       </c>
       <c r="H75" t="n">
-        <v>0.008102738079196259</v>
+        <v>0.008</v>
       </c>
       <c r="I75" t="n">
-        <v>0.004906312560124748</v>
+        <v>0.005</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.03636049509766182</v>
+        <v>-0.03636055378299763</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.0483478464552094</v>
+        <v>-0.04834750089861484</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0008314387186207917</v>
+        <v>0.0008310013154897433</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.01008732976804971</v>
+        <v>-0.01008725062628835</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>61.00167846679688</v>
+        <v>61.00168609619141</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>-4.83478464552094</v>
+        <v>-4.834750089861483</v>
       </c>
       <c r="R75" t="n">
-        <v>187.8289884808129</v>
+        <v>187.8286426996261</v>
       </c>
       <c r="S75" t="n">
-        <v>-4.834784645520945</v>
+        <v>-4.834750089861482</v>
       </c>
     </row>
     <row r="76">
@@ -5195,40 +5195,40 @@
         <v>43190</v>
       </c>
       <c r="B76" t="n">
-        <v>243.6882934570312</v>
+        <v>243.6883087158203</v>
       </c>
       <c r="C76" t="n">
-        <v>60.489501953125</v>
+        <v>60.48949813842773</v>
       </c>
       <c r="D76" t="n">
-        <v>87.44209289550781</v>
+        <v>87.44207763671875</v>
       </c>
       <c r="E76" t="n">
-        <v>96.06964874267578</v>
+        <v>96.06968688964844</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1385486587169178</v>
+        <v>0.139</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1431160049764635</v>
+        <v>0.143</v>
       </c>
       <c r="H76" t="n">
-        <v>0.009370922706290363</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01109113256211125</v>
+        <v>0.011</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.02741045798506836</v>
+        <v>-0.02741033785499258</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.00839610526373713</v>
+        <v>-0.008396291816524903</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0013016420749008</v>
+        <v>0.001301642302335093</v>
       </c>
       <c r="M76" t="n">
-        <v>0.006711333740269776</v>
+        <v>0.006711652996587159</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>60.489501953125</v>
+        <v>60.48949813842773</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -5244,13 +5244,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>-0.839610526373713</v>
+        <v>-0.8396291816524903</v>
       </c>
       <c r="R76" t="n">
-        <v>186.2519565219467</v>
+        <v>186.2515786040183</v>
       </c>
       <c r="S76" t="n">
-        <v>-5.633801811083369</v>
+        <v>-5.633785298899525</v>
       </c>
     </row>
     <row r="77">
@@ -5258,40 +5258,40 @@
         <v>43220</v>
       </c>
       <c r="B77" t="n">
-        <v>244.9477081298828</v>
+        <v>244.9476928710938</v>
       </c>
       <c r="C77" t="n">
-        <v>61.40968322753906</v>
+        <v>61.40968704223633</v>
       </c>
       <c r="D77" t="n">
-        <v>87.53292846679688</v>
+        <v>87.53292083740234</v>
       </c>
       <c r="E77" t="n">
         <v>95.16558074951172</v>
       </c>
       <c r="F77" t="n">
-        <v>0.132222906292325</v>
+        <v>0.132</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1386776124111502</v>
+        <v>0.139</v>
       </c>
       <c r="H77" t="n">
-        <v>0.009889031279484595</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.006328297132904392</v>
+        <v>-0.006</v>
       </c>
       <c r="J77" t="n">
-        <v>0.005168137767248338</v>
+        <v>0.005168012211624218</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01521224749258376</v>
+        <v>0.0152123745795143</v>
       </c>
       <c r="L77" t="n">
-        <v>0.001038808293365223</v>
+        <v>0.001038895725476774</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.009410547503776345</v>
+        <v>-0.009410940843132209</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>61.40968322753906</v>
+        <v>61.40968704223633</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -5307,13 +5307,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>1.521224749258376</v>
+        <v>1.52123745795143</v>
       </c>
       <c r="R77" t="n">
-        <v>189.0852673805365</v>
+        <v>189.0849073837684</v>
       </c>
       <c r="S77" t="n">
-        <v>-4.198279849299361</v>
+        <v>-4.198251093215515</v>
       </c>
     </row>
     <row r="78">
@@ -5321,40 +5321,40 @@
         <v>43251</v>
       </c>
       <c r="B78" t="n">
-        <v>250.9021759033203</v>
+        <v>250.9022064208984</v>
       </c>
       <c r="C78" t="n">
-        <v>60.24642562866211</v>
+        <v>60.24643325805664</v>
       </c>
       <c r="D78" t="n">
-        <v>87.66405487060547</v>
+        <v>87.6640625</v>
       </c>
       <c r="E78" t="n">
-        <v>95.79547119140625</v>
+        <v>95.79545593261719</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1436067942093027</v>
+        <v>0.144</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07889047770768509</v>
+        <v>0.079</v>
       </c>
       <c r="H78" t="n">
-        <v>0.01124716578832463</v>
+        <v>0.011</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.006577296285946388</v>
+        <v>-0.007</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02430913854593064</v>
+        <v>0.02430932694245991</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.01894257611730021</v>
+        <v>-0.01894251282179027</v>
       </c>
       <c r="L78" t="n">
-        <v>0.001498023727817266</v>
+        <v>0.001498198178960131</v>
       </c>
       <c r="M78" t="n">
-        <v>0.006618889276286621</v>
+        <v>0.006618728936918616</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>250.9021759033203</v>
+        <v>250.9022064208984</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -5370,13 +5370,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>-1.894257611730021</v>
+        <v>-1.894251282179027</v>
       </c>
       <c r="R78" t="n">
-        <v>185.5035053105207</v>
+        <v>185.5031641012444</v>
       </c>
       <c r="S78" t="n">
-        <v>-6.013011225422304</v>
+        <v>-6.012976950232209</v>
       </c>
     </row>
     <row r="79">
@@ -5384,40 +5384,40 @@
         <v>43281</v>
       </c>
       <c r="B79" t="n">
-        <v>252.3450622558594</v>
+        <v>252.3450775146484</v>
       </c>
       <c r="C79" t="n">
-        <v>59.29206085205078</v>
+        <v>59.29206466674805</v>
       </c>
       <c r="D79" t="n">
-        <v>87.79444885253906</v>
+        <v>87.79442596435547</v>
       </c>
       <c r="E79" t="n">
-        <v>95.89377593994141</v>
+        <v>95.89378356933594</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1450282928721986</v>
+        <v>0.145</v>
       </c>
       <c r="G79" t="n">
-        <v>0.05931551829764281</v>
+        <v>0.059</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0119316257685409</v>
+        <v>0.012</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.006646441299265504</v>
+        <v>-0.007</v>
       </c>
       <c r="J79" t="n">
-        <v>0.005750792504466196</v>
+        <v>0.005750730989306341</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.01584101905885171</v>
+        <v>-0.01584108037102705</v>
       </c>
       <c r="L79" t="n">
-        <v>0.001487428138317926</v>
+        <v>0.001487079889270104</v>
       </c>
       <c r="M79" t="n">
-        <v>0.001026194112441203</v>
+        <v>0.001026433203553223</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>252.3450622558594</v>
+        <v>252.3450775146484</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -5433,13 +5433,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>0.5750792504466196</v>
+        <v>0.5750730989306341</v>
       </c>
       <c r="R79" t="n">
-        <v>186.5702974784126</v>
+        <v>186.5699428956558</v>
       </c>
       <c r="S79" t="n">
-        <v>-5.472511554860119</v>
+        <v>-5.472482864187254</v>
       </c>
     </row>
     <row r="80">
@@ -5447,40 +5447,40 @@
         <v>43312</v>
       </c>
       <c r="B80" t="n">
-        <v>261.693603515625</v>
+        <v>261.6935729980469</v>
       </c>
       <c r="C80" t="n">
-        <v>60.98307037353516</v>
+        <v>60.98308944702148</v>
       </c>
       <c r="D80" t="n">
-        <v>87.91636657714844</v>
+        <v>87.91635131835938</v>
       </c>
       <c r="E80" t="n">
-        <v>95.86576843261719</v>
+        <v>95.86576080322266</v>
       </c>
       <c r="F80" t="n">
-        <v>0.161367205193663</v>
+        <v>0.161</v>
       </c>
       <c r="G80" t="n">
-        <v>0.06071404827159643</v>
+        <v>0.061</v>
       </c>
       <c r="H80" t="n">
-        <v>0.01278290402710303</v>
+        <v>0.013</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.008976403824520807</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03704665816003527</v>
+        <v>0.03704647451605525</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0285199990889824</v>
+        <v>0.02852025460367869</v>
       </c>
       <c r="L80" t="n">
-        <v>0.001388672361440024</v>
+        <v>0.001388759624140645</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.000292068041431226</v>
+        <v>-0.0002922271399691256</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>261.693603515625</v>
+        <v>261.6935729980469</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -5496,13 +5496,13 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>3.704665816003527</v>
+        <v>3.704647451605525</v>
       </c>
       <c r="R80" t="n">
-        <v>193.4821035119114</v>
+        <v>193.4817015306016</v>
       </c>
       <c r="S80" t="n">
-        <v>-1.970584003706341</v>
+        <v>-1.970571609549391</v>
       </c>
     </row>
     <row r="81">
@@ -5513,37 +5513,37 @@
         <v>270.0468444824219</v>
       </c>
       <c r="C81" t="n">
-        <v>59.61964416503906</v>
+        <v>59.61963653564453</v>
       </c>
       <c r="D81" t="n">
-        <v>88.05575561523438</v>
+        <v>88.05577850341797</v>
       </c>
       <c r="E81" t="n">
         <v>96.41029357910156</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1949512743349806</v>
+        <v>0.195</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03746417666215218</v>
+        <v>0.037</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01323576753572175</v>
+        <v>0.013</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.01264180778882751</v>
+        <v>-0.013</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03191992794083753</v>
+        <v>0.03192004827889816</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.02235745429255687</v>
+        <v>-0.02235788517342074</v>
       </c>
       <c r="L81" t="n">
-        <v>0.001585473143542959</v>
+        <v>0.001585907319489488</v>
       </c>
       <c r="M81" t="n">
-        <v>0.005680079087532874</v>
+        <v>0.005680159123721218</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -5559,10 +5559,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>3.191992794083753</v>
+        <v>3.192004827889816</v>
       </c>
       <c r="R81" t="n">
-        <v>199.6580383138533</v>
+        <v>199.6576467845418</v>
       </c>
       <c r="S81" t="n">
         <v>-0</v>
@@ -5573,40 +5573,40 @@
         <v>43373</v>
       </c>
       <c r="B82" t="n">
-        <v>271.65234375</v>
+        <v>271.6523742675781</v>
       </c>
       <c r="C82" t="n">
-        <v>60.19511795043945</v>
+        <v>60.19512176513672</v>
       </c>
       <c r="D82" t="n">
-        <v>88.17900848388672</v>
+        <v>88.17899322509766</v>
       </c>
       <c r="E82" t="n">
-        <v>95.81279754638672</v>
+        <v>95.81280517578125</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1824551445343703</v>
+        <v>0.182</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02932285175556681</v>
+        <v>0.029</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01436557254639159</v>
+        <v>0.014</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.01392965330745344</v>
+        <v>-0.014</v>
       </c>
       <c r="J82" t="n">
-        <v>0.005945262092046599</v>
+        <v>0.005945375100506967</v>
       </c>
       <c r="K82" t="n">
-        <v>0.009652418988066458</v>
+        <v>0.009652612174985808</v>
       </c>
       <c r="L82" t="n">
-        <v>0.001399713940232417</v>
+        <v>0.001399280362672783</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.006197429864940873</v>
+        <v>-0.006197350730294038</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>271.65234375</v>
+        <v>271.6523742675781</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -5622,10 +5622,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>0.5945262092046599</v>
+        <v>0.5945375100506967</v>
       </c>
       <c r="R82" t="n">
-        <v>200.845057680413</v>
+        <v>200.8446863863604</v>
       </c>
       <c r="S82" t="n">
         <v>-0</v>
@@ -5636,40 +5636,40 @@
         <v>43404</v>
       </c>
       <c r="B83" t="n">
-        <v>252.8799591064453</v>
+        <v>252.8800048828125</v>
       </c>
       <c r="C83" t="n">
         <v>55.29912567138672</v>
       </c>
       <c r="D83" t="n">
-        <v>88.32944488525391</v>
+        <v>88.32947540283203</v>
       </c>
       <c r="E83" t="n">
         <v>95.19571685791016</v>
       </c>
       <c r="F83" t="n">
-        <v>0.07163479398367212</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.07544692080405691</v>
+        <v>-0.075</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01494133467986547</v>
+        <v>0.015</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.02043463600618156</v>
+        <v>-0.02</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.06910444572063323</v>
+        <v>-0.06910438178712475</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.08133537146789482</v>
+        <v>-0.08133542968569285</v>
       </c>
       <c r="L83" t="n">
-        <v>0.001706034167924253</v>
+        <v>0.001706553593215032</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.006440482944648496</v>
+        <v>-0.006440562059935151</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>252.8799591064453</v>
+        <v>252.8800048828125</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -5685,13 +5685,13 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>-6.910444572063323</v>
+        <v>-6.910438178712475</v>
       </c>
       <c r="R83" t="n">
-        <v>186.9657712936795</v>
+        <v>186.965438498402</v>
       </c>
       <c r="S83" t="n">
-        <v>-6.910444572063319</v>
+        <v>-6.910438178712472</v>
       </c>
     </row>
     <row r="84">
@@ -5699,40 +5699,40 @@
         <v>43434</v>
       </c>
       <c r="B84" t="n">
-        <v>257.57080078125</v>
+        <v>257.5707702636719</v>
       </c>
       <c r="C84" t="n">
         <v>55.57358169555664</v>
       </c>
       <c r="D84" t="n">
-        <v>88.49367523193359</v>
+        <v>88.49366760253906</v>
       </c>
       <c r="E84" t="n">
-        <v>95.93016815185547</v>
+        <v>95.93019866943359</v>
       </c>
       <c r="F84" t="n">
-        <v>0.05913945233221174</v>
+        <v>0.059</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.07721966733295849</v>
+        <v>-0.077</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01627292333559538</v>
+        <v>0.016</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.01141097645754419</v>
+        <v>-0.011</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0185496774492524</v>
+        <v>0.01854937239119847</v>
       </c>
       <c r="K84" t="n">
         <v>0.004963116881826712</v>
       </c>
       <c r="L84" t="n">
-        <v>0.001859293318247746</v>
+        <v>0.001858860804484719</v>
       </c>
       <c r="M84" t="n">
-        <v>0.00771517162942903</v>
+        <v>0.007715492206647578</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>257.57080078125</v>
+        <v>257.5707702636719</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -5748,13 +5748,13 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>1.85496774492524</v>
+        <v>1.854937239119847</v>
       </c>
       <c r="R84" t="n">
-        <v>190.433926045228</v>
+        <v>190.4335300413926</v>
       </c>
       <c r="S84" t="n">
-        <v>-5.183663344980792</v>
+        <v>-5.18368523075592</v>
       </c>
     </row>
     <row r="85">
@@ -5762,40 +5762,40 @@
         <v>43465</v>
       </c>
       <c r="B85" t="n">
-        <v>234.8920440673828</v>
+        <v>234.8920593261719</v>
       </c>
       <c r="C85" t="n">
         <v>52.60053253173828</v>
       </c>
       <c r="D85" t="n">
-        <v>88.65541839599609</v>
+        <v>88.65540313720703</v>
       </c>
       <c r="E85" t="n">
         <v>97.83078002929688</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.04568981662092941</v>
+        <v>-0.046</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1382105416838955</v>
+        <v>-0.138</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0173733440450059</v>
+        <v>0.017</v>
       </c>
       <c r="I85" t="n">
-        <v>0.003407533884796754</v>
+        <v>0.003</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.08804863224045267</v>
+        <v>-0.08804846494920249</v>
       </c>
       <c r="K85" t="n">
         <v>-0.05349752657846185</v>
       </c>
       <c r="L85" t="n">
-        <v>0.00182773699519867</v>
+        <v>0.001827650938758474</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01981245226666117</v>
+        <v>0.01981212784112452</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -5811,13 +5811,13 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>-8.804863224045267</v>
+        <v>-8.804846494920248</v>
       </c>
       <c r="R85" t="n">
-        <v>173.6664793247661</v>
+        <v>173.6661500463901</v>
       </c>
       <c r="S85" t="n">
-        <v>-13.53211210150553</v>
+        <v>-13.53211619832826</v>
       </c>
     </row>
     <row r="86">
@@ -5825,7 +5825,7 @@
         <v>43496</v>
       </c>
       <c r="B86" t="n">
-        <v>253.6988067626953</v>
+        <v>253.6988983154297</v>
       </c>
       <c r="C86" t="n">
         <v>56.09053421020508</v>
@@ -5834,31 +5834,31 @@
         <v>88.81051635742188</v>
       </c>
       <c r="E86" t="n">
-        <v>98.72185516357422</v>
+        <v>98.72188568115234</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.0242738393918509</v>
+        <v>-0.024</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1249637876165431</v>
+        <v>-0.125</v>
       </c>
       <c r="H86" t="n">
-        <v>0.01781704361061776</v>
+        <v>0.018</v>
       </c>
       <c r="I86" t="n">
-        <v>0.02406835505590021</v>
+        <v>0.024</v>
       </c>
       <c r="J86" t="n">
-        <v>0.08006555849936525</v>
+        <v>0.08006587810251431</v>
       </c>
       <c r="K86" t="n">
         <v>0.06634917006516972</v>
       </c>
       <c r="L86" t="n">
-        <v>0.001749447064058884</v>
+        <v>0.001749619478632169</v>
       </c>
       <c r="M86" t="n">
-        <v>0.009108331079548782</v>
+        <v>0.009108643022049057</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>98.72185516357422</v>
+        <v>98.72188568115234</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -5874,13 +5874,13 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>0.9108331079548782</v>
+        <v>0.9108643022049057</v>
       </c>
       <c r="R86" t="n">
-        <v>175.2482911158757</v>
+        <v>175.2480130121763</v>
       </c>
       <c r="S86" t="n">
-        <v>-12.74453395077673</v>
+        <v>-12.74451111190682</v>
       </c>
     </row>
     <row r="87">
@@ -5888,40 +5888,40 @@
         <v>43524</v>
       </c>
       <c r="B87" t="n">
-        <v>261.9227294921875</v>
+        <v>261.9226989746094</v>
       </c>
       <c r="C87" t="n">
-        <v>57.51337432861328</v>
+        <v>57.51337051391602</v>
       </c>
       <c r="D87" t="n">
-        <v>88.97464752197266</v>
+        <v>88.97463989257812</v>
       </c>
       <c r="E87" t="n">
         <v>98.60953521728516</v>
       </c>
       <c r="F87" t="n">
-        <v>0.04536538832558046</v>
+        <v>0.045</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05718374028154438</v>
+        <v>-0.057</v>
       </c>
       <c r="H87" t="n">
-        <v>0.01885096429758026</v>
+        <v>0.019</v>
       </c>
       <c r="I87" t="n">
-        <v>0.03332673760472726</v>
+        <v>0.033</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03241608754267689</v>
+        <v>0.03241559468246025</v>
       </c>
       <c r="K87" t="n">
-        <v>0.02536684912067266</v>
+        <v>0.02536678111102875</v>
       </c>
       <c r="L87" t="n">
-        <v>0.001848105058754879</v>
+        <v>0.001848019152323355</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.001137741446440188</v>
+        <v>-0.001138050221508702</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         </is>
       </c>
       <c r="O87" t="n">
-        <v>261.9227294921875</v>
+        <v>261.9226989746094</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>-0.1137741446440188</v>
+        <v>-0.1138050221508702</v>
       </c>
       <c r="R87" t="n">
-        <v>175.0489038716553</v>
+        <v>175.0485719721488</v>
       </c>
       <c r="S87" t="n">
-        <v>-12.84380811092939</v>
+        <v>-12.84381224036376</v>
       </c>
     </row>
     <row r="88">
@@ -5951,40 +5951,40 @@
         <v>43555</v>
       </c>
       <c r="B88" t="n">
-        <v>266.6636657714844</v>
+        <v>266.6636962890625</v>
       </c>
       <c r="C88" t="n">
-        <v>58.04134750366211</v>
+        <v>58.04135131835938</v>
       </c>
       <c r="D88" t="n">
         <v>89.13032531738281</v>
       </c>
       <c r="E88" t="n">
-        <v>100.7026062011719</v>
+        <v>100.7025909423828</v>
       </c>
       <c r="F88" t="n">
-        <v>0.09428180561535382</v>
+        <v>0.094</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.04047238562750999</v>
+        <v>-0.04</v>
       </c>
       <c r="H88" t="n">
-        <v>0.01930686201544174</v>
+        <v>0.019</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0482249859256334</v>
+        <v>0.048</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01810051494381004</v>
+        <v>0.01810075008013223</v>
       </c>
       <c r="K88" t="n">
-        <v>0.009180006932512086</v>
+        <v>0.009180140195671704</v>
       </c>
       <c r="L88" t="n">
-        <v>0.001749687127130306</v>
+        <v>0.001749773025129908</v>
       </c>
       <c r="M88" t="n">
-        <v>0.02122584777703951</v>
+        <v>0.02122569303755095</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>266.6636657714844</v>
+        <v>266.6636962890625</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -6000,13 +6000,13 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>1.810051494381004</v>
+        <v>1.810075008013223</v>
       </c>
       <c r="R88" t="n">
-        <v>178.2173791720818</v>
+        <v>178.2170824253007</v>
       </c>
       <c r="S88" t="n">
-        <v>-11.2662361571957</v>
+        <v>-11.26621986778951</v>
       </c>
     </row>
     <row r="89">
@@ -6014,40 +6014,40 @@
         <v>43585</v>
       </c>
       <c r="B89" t="n">
-        <v>277.5574951171875</v>
+        <v>277.5575256347656</v>
       </c>
       <c r="C89" t="n">
-        <v>59.74160385131836</v>
+        <v>59.74160766601562</v>
       </c>
       <c r="D89" t="n">
-        <v>89.30189514160156</v>
+        <v>89.30192565917969</v>
       </c>
       <c r="E89" t="n">
-        <v>100.5008697509766</v>
+        <v>100.500862121582</v>
       </c>
       <c r="F89" t="n">
-        <v>0.133129586050315</v>
+        <v>0.133</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.02716313272680515</v>
+        <v>-0.027</v>
       </c>
       <c r="H89" t="n">
-        <v>0.02020915678007618</v>
+        <v>0.02</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0560632211714025</v>
+        <v>0.056</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04085231977212267</v>
+        <v>0.04085231509689358</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0292938813584398</v>
+        <v>0.02929387943313499</v>
       </c>
       <c r="L89" t="n">
-        <v>0.00192493209923561</v>
+        <v>0.001925274491996198</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.002003289267333397</v>
+        <v>-0.002003213809227633</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>277.5574951171875</v>
+        <v>277.5575256347656</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -6063,13 +6063,13 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>4.085231977212267</v>
+        <v>4.085231509689358</v>
       </c>
       <c r="R89" t="n">
-        <v>185.4979725349693</v>
+        <v>185.4976628321882</v>
       </c>
       <c r="S89" t="n">
-        <v>-7.641256062105445</v>
+        <v>-7.641239522089975</v>
       </c>
     </row>
     <row r="90">
@@ -6077,40 +6077,40 @@
         <v>43616</v>
       </c>
       <c r="B90" t="n">
-        <v>259.8572998046875</v>
+        <v>259.8573608398438</v>
       </c>
       <c r="C90" t="n">
         <v>56.73483657836914</v>
       </c>
       <c r="D90" t="n">
-        <v>89.49140167236328</v>
+        <v>89.49140930175781</v>
       </c>
       <c r="E90" t="n">
-        <v>102.4212417602539</v>
+        <v>102.421272277832</v>
       </c>
       <c r="F90" t="n">
-        <v>0.03569169485727319</v>
+        <v>0.036</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05828709361012008</v>
+        <v>-0.058</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0208448811141011</v>
+        <v>0.021</v>
       </c>
       <c r="I90" t="n">
-        <v>0.06916580174869535</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.06377127486694889</v>
+        <v>-0.06377115790480603</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.05032953719207633</v>
+        <v>-0.05032959783164492</v>
       </c>
       <c r="L90" t="n">
-        <v>0.002122088567787062</v>
+        <v>0.002121831541475272</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0191080138314792</v>
+        <v>0.01910839485065075</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>259.8572998046875</v>
+        <v>259.8573608398438</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -6126,13 +6126,13 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>-6.377127486694889</v>
+        <v>-6.377115790480604</v>
       </c>
       <c r="R90" t="n">
-        <v>173.66853034118</v>
+        <v>173.6682620847442</v>
       </c>
       <c r="S90" t="n">
-        <v>-13.53109090813507</v>
+        <v>-13.53106462041893</v>
       </c>
     </row>
     <row r="91">
@@ -6140,40 +6140,40 @@
         <v>43646</v>
       </c>
       <c r="B91" t="n">
-        <v>277.9398803710938</v>
+        <v>277.9398498535156</v>
       </c>
       <c r="C91" t="n">
-        <v>60.08880615234375</v>
+        <v>60.08880233764648</v>
       </c>
       <c r="D91" t="n">
-        <v>89.65385437011719</v>
+        <v>89.65384674072266</v>
       </c>
       <c r="E91" t="n">
         <v>103.5464477539062</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1030134408483319</v>
+        <v>0.103</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01906783156182712</v>
+        <v>0.019</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02140222236129374</v>
+        <v>0.021</v>
       </c>
       <c r="I91" t="n">
-        <v>0.08071840647855799</v>
+        <v>0.081</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0695865791724819</v>
+        <v>0.06958621050883584</v>
       </c>
       <c r="K91" t="n">
-        <v>0.05911658120917807</v>
+        <v>0.05911651397187745</v>
       </c>
       <c r="L91" t="n">
-        <v>0.001815288337405407</v>
+        <v>0.001815117677017586</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0109860608435719</v>
+        <v>0.01098575960882453</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>277.9398803710938</v>
+        <v>277.9398498535156</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -6189,13 +6189,13 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>6.95865791724819</v>
+        <v>6.958621050883584</v>
       </c>
       <c r="R91" t="n">
-        <v>185.7535292775351</v>
+        <v>185.7531783288769</v>
       </c>
       <c r="S91" t="n">
-        <v>-7.514015319655871</v>
+        <v>-7.514019080620485</v>
       </c>
     </row>
     <row r="92">
@@ -6206,37 +6206,37 @@
         <v>282.1421813964844</v>
       </c>
       <c r="C92" t="n">
-        <v>58.91864776611328</v>
+        <v>58.91864395141602</v>
       </c>
       <c r="D92" t="n">
-        <v>89.81563568115234</v>
+        <v>89.81562042236328</v>
       </c>
       <c r="E92" t="n">
-        <v>103.7347106933594</v>
+        <v>103.734733581543</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07813938745980264</v>
+        <v>0.078</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03385238878227703</v>
+        <v>-0.034</v>
       </c>
       <c r="H92" t="n">
-        <v>0.02160313463747676</v>
+        <v>0.022</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0820829206232585</v>
+        <v>0.082</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01511946043791879</v>
+        <v>0.01511957189724145</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.01947381652522362</v>
+        <v>-0.01947381776150581</v>
       </c>
       <c r="L92" t="n">
-        <v>0.001804510382423352</v>
+        <v>0.001804425437633261</v>
       </c>
       <c r="M92" t="n">
-        <v>0.001818149666520386</v>
+        <v>0.001818370709193218</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>1.511946043791879</v>
+        <v>1.511957189724145</v>
       </c>
       <c r="R92" t="n">
-        <v>188.5620224146506</v>
+        <v>188.5616868637615</v>
       </c>
       <c r="S92" t="n">
-        <v>-6.115677133219442</v>
+        <v>-6.115670642623025</v>
       </c>
     </row>
     <row r="93">
@@ -6269,37 +6269,37 @@
         <v>277.4181518554688</v>
       </c>
       <c r="C93" t="n">
-        <v>57.78506851196289</v>
+        <v>57.78507614135742</v>
       </c>
       <c r="D93" t="n">
-        <v>89.96785736083984</v>
+        <v>89.96783447265625</v>
       </c>
       <c r="E93" t="n">
-        <v>106.6214218139648</v>
+        <v>106.6214141845703</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02733204438945513</v>
+        <v>0.027</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03848171859547833</v>
+        <v>-0.038</v>
       </c>
       <c r="H93" t="n">
-        <v>0.02160305399723894</v>
+        <v>0.022</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1058092105487005</v>
+        <v>0.106</v>
       </c>
       <c r="J93" t="n">
         <v>-0.01674343594294792</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.01923973643540344</v>
+        <v>-0.01923954344559131</v>
       </c>
       <c r="L93" t="n">
-        <v>0.00169482383031716</v>
+        <v>0.001694739173176973</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0278278225418549</v>
+        <v>0.02782752221326334</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -6318,10 +6318,10 @@
         <v>-1.674343594294792</v>
       </c>
       <c r="R93" t="n">
-        <v>185.4048462710782</v>
+        <v>185.4045163384639</v>
       </c>
       <c r="S93" t="n">
-        <v>-7.687623279186419</v>
+        <v>-7.687616897264895</v>
       </c>
     </row>
     <row r="94">
@@ -6329,7 +6329,7 @@
         <v>43738</v>
       </c>
       <c r="B94" t="n">
-        <v>282.8161010742188</v>
+        <v>282.8161315917969</v>
       </c>
       <c r="C94" t="n">
         <v>59.61342620849609</v>
@@ -6341,28 +6341,28 @@
         <v>105.9687652587891</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04109575190889081</v>
+        <v>0.041</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.009663437198051295</v>
+        <v>-0.01</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02193782743582928</v>
+        <v>0.022</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1059980292036191</v>
+        <v>0.106</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01945780830362631</v>
+        <v>0.01945791830932686</v>
       </c>
       <c r="K94" t="n">
-        <v>0.03164065983853059</v>
+        <v>0.03164052363046221</v>
       </c>
       <c r="L94" t="n">
-        <v>0.001618433503922434</v>
+        <v>0.00161868831973222</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.006121251659113591</v>
+        <v>-0.006121180541194704</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>282.8161010742188</v>
+        <v>282.8161315917969</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>1.945780830362631</v>
+        <v>1.945791830932686</v>
       </c>
       <c r="R94" t="n">
-        <v>189.0124182283842</v>
+        <v>189.0121022715579</v>
       </c>
       <c r="S94" t="n">
-        <v>-5.891426748900694</v>
+        <v>-5.891410087912587</v>
       </c>
     </row>
     <row r="95">
@@ -6392,40 +6392,40 @@
         <v>43769</v>
       </c>
       <c r="B95" t="n">
-        <v>289.0676879882812</v>
+        <v>289.0677185058594</v>
       </c>
       <c r="C95" t="n">
         <v>61.63375091552734</v>
       </c>
       <c r="D95" t="n">
-        <v>90.25831604003906</v>
+        <v>90.25830078125</v>
       </c>
       <c r="E95" t="n">
-        <v>106.1893157958984</v>
+        <v>106.1893310546875</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1431023992953249</v>
+        <v>0.143</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1145519963875004</v>
+        <v>0.115</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02183723850286734</v>
+        <v>0.022</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1154841761882777</v>
+        <v>0.115</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02210477723975801</v>
+        <v>0.02210477485451823</v>
       </c>
       <c r="K95" t="n">
         <v>0.03389043099058298</v>
       </c>
       <c r="L95" t="n">
-        <v>0.001607436642308224</v>
+        <v>0.001607267313682659</v>
       </c>
       <c r="M95" t="n">
-        <v>0.002081278729357372</v>
+        <v>0.002081422722627568</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         </is>
       </c>
       <c r="O95" t="n">
-        <v>289.0676879882812</v>
+        <v>289.0677185058594</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -6441,13 +6441,13 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>2.210477723975801</v>
+        <v>2.210477485451823</v>
       </c>
       <c r="R95" t="n">
-        <v>193.1904956288706</v>
+        <v>193.1901722370499</v>
       </c>
       <c r="S95" t="n">
-        <v>-3.811177700833692</v>
+        <v>-3.811160896029706</v>
       </c>
     </row>
     <row r="96">
@@ -6455,40 +6455,40 @@
         <v>43799</v>
       </c>
       <c r="B96" t="n">
-        <v>299.5314636230469</v>
+        <v>299.5313415527344</v>
       </c>
       <c r="C96" t="n">
-        <v>62.32852554321289</v>
+        <v>62.32852935791016</v>
       </c>
       <c r="D96" t="n">
         <v>90.35600280761719</v>
       </c>
       <c r="E96" t="n">
-        <v>106.1526260375977</v>
+        <v>106.1526412963867</v>
       </c>
       <c r="F96" t="n">
-        <v>0.169997637367078</v>
+        <v>0.17</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1167459028281561</v>
+        <v>0.117</v>
       </c>
       <c r="H96" t="n">
-        <v>0.02115620950463182</v>
+        <v>0.021</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1062447211692057</v>
+        <v>0.106</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03619835792643089</v>
+        <v>0.03619782624279066</v>
       </c>
       <c r="K96" t="n">
-        <v>0.01127263256519595</v>
+        <v>0.01127269445818824</v>
       </c>
       <c r="L96" t="n">
-        <v>0.001082302128645907</v>
+        <v>0.001082471368522464</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.0003455127102551803</v>
+        <v>-0.0003455126606070058</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>299.5314636230469</v>
+        <v>299.5313415527344</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
@@ -6504,13 +6504,13 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>3.619835792643089</v>
+        <v>3.619782624279066</v>
       </c>
       <c r="R96" t="n">
-        <v>200.183674337629</v>
+        <v>200.1832365235014</v>
       </c>
       <c r="S96" t="n">
-        <v>-0.3293002827266123</v>
+        <v>-0.3293340116484468</v>
       </c>
     </row>
     <row r="97">
@@ -6518,40 +6518,40 @@
         <v>43830</v>
       </c>
       <c r="B97" t="n">
-        <v>308.234375</v>
+        <v>308.2344360351562</v>
       </c>
       <c r="C97" t="n">
-        <v>64.19551086425781</v>
+        <v>64.19551849365234</v>
       </c>
       <c r="D97" t="n">
-        <v>90.45683288574219</v>
+        <v>90.45682525634766</v>
       </c>
       <c r="E97" t="n">
-        <v>106.1029968261719</v>
+        <v>106.1029891967773</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3122384635197677</v>
+        <v>0.312</v>
       </c>
       <c r="G97" t="n">
-        <v>0.2204346187089135</v>
+        <v>0.22</v>
       </c>
       <c r="H97" t="n">
-        <v>0.02031928247972092</v>
+        <v>0.02</v>
       </c>
       <c r="I97" t="n">
-        <v>0.08455638189123871</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02905508246674726</v>
+        <v>0.02905570561433102</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02995394652406014</v>
+        <v>0.02995400589385544</v>
       </c>
       <c r="L97" t="n">
-        <v>0.001115920082694233</v>
+        <v>0.001115835645641994</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.000467526930593376</v>
+        <v>-0.0004677424791601492</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         </is>
       </c>
       <c r="O97" t="n">
-        <v>308.234375</v>
+        <v>308.2344360351562</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
@@ -6567,10 +6567,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>2.905508246674726</v>
+        <v>2.905570561433102</v>
       </c>
       <c r="R97" t="n">
-        <v>206.0000275040053</v>
+        <v>205.9997017128523</v>
       </c>
       <c r="S97" t="n">
         <v>-0</v>
@@ -6581,40 +6581,40 @@
         <v>43861</v>
       </c>
       <c r="B98" t="n">
-        <v>308.1099853515625</v>
+        <v>308.1099243164062</v>
       </c>
       <c r="C98" t="n">
-        <v>62.38355255126953</v>
+        <v>62.383544921875</v>
       </c>
       <c r="D98" t="n">
-        <v>90.56564331054688</v>
+        <v>90.56566619873047</v>
       </c>
       <c r="E98" t="n">
-        <v>108.2558288574219</v>
+        <v>108.2558212280273</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2144715589449433</v>
+        <v>0.214</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1121939455502547</v>
+        <v>0.112</v>
       </c>
       <c r="H98" t="n">
-        <v>0.01976260273120589</v>
+        <v>0.02</v>
       </c>
       <c r="I98" t="n">
-        <v>0.09657409373082215</v>
+        <v>0.097</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.0004035554062958857</v>
+        <v>-0.0004039513571280073</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.02822562339007928</v>
+        <v>-0.02822585772800501</v>
       </c>
       <c r="L98" t="n">
-        <v>0.001202898900319882</v>
+        <v>0.0012032363735337</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02029002097628751</v>
+        <v>0.02029002243525291</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>308.1099853515625</v>
+        <v>308.1099243164062</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -6630,13 +6630,13 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>-0.04035554062958857</v>
+        <v>-0.04039513571280073</v>
       </c>
       <c r="R98" t="n">
-        <v>205.916895079209</v>
+        <v>205.9164878537775</v>
       </c>
       <c r="S98" t="n">
-        <v>-0.04035554062958708</v>
+        <v>-0.04039513571279515</v>
       </c>
     </row>
     <row r="99">
@@ -6644,40 +6644,40 @@
         <v>43890</v>
       </c>
       <c r="B99" t="n">
-        <v>283.7182006835938</v>
+        <v>283.7182312011719</v>
       </c>
       <c r="C99" t="n">
-        <v>57.53929901123047</v>
+        <v>57.5392951965332</v>
       </c>
       <c r="D99" t="n">
-        <v>90.67263031005859</v>
+        <v>90.67263793945312</v>
       </c>
       <c r="E99" t="n">
-        <v>109.9713363647461</v>
+        <v>109.9713439941406</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08321336309247784</v>
+        <v>0.083</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0004507592002698235</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0190838945180043</v>
+        <v>0.019</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1152201064777896</v>
+        <v>0.115</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.07916583631697949</v>
+        <v>-0.07916555485627885</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.07765273604862188</v>
+        <v>-0.07765268439631656</v>
       </c>
       <c r="L99" t="n">
-        <v>0.001181319931056635</v>
+        <v>0.001181151149354243</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0158467911190594</v>
+        <v>0.0158469331870823</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         </is>
       </c>
       <c r="O99" t="n">
-        <v>283.7182006835938</v>
+        <v>283.7182312011719</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -6693,13 +6693,13 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>-7.916583631697948</v>
+        <v>-7.916555485627885</v>
       </c>
       <c r="R99" t="n">
-        <v>189.6153118684677</v>
+        <v>189.614994838777</v>
       </c>
       <c r="S99" t="n">
-        <v>-7.953744392203567</v>
+        <v>-7.953752718008484</v>
       </c>
     </row>
     <row r="100">
@@ -6707,40 +6707,40 @@
         <v>43921</v>
       </c>
       <c r="B100" t="n">
-        <v>248.2899322509766</v>
+        <v>248.2899627685547</v>
       </c>
       <c r="C100" t="n">
-        <v>49.42240524291992</v>
+        <v>49.42240905761719</v>
       </c>
       <c r="D100" t="n">
-        <v>90.85807800292969</v>
+        <v>90.85806274414062</v>
       </c>
       <c r="E100" t="n">
-        <v>109.3920059204102</v>
+        <v>109.3919982910156</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.07981502798908169</v>
+        <v>-0.08</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1592554447313956</v>
+        <v>-0.159</v>
       </c>
       <c r="H100" t="n">
-        <v>0.01920606860212515</v>
+        <v>0.019</v>
       </c>
       <c r="I100" t="n">
-        <v>0.09128260419192569</v>
+        <v>0.091</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.1248713277726136</v>
+        <v>-0.1248713143410816</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.1410669561116186</v>
+        <v>-0.1410668328694625</v>
       </c>
       <c r="L100" t="n">
-        <v>0.002045244438558136</v>
+        <v>0.002044991839890153</v>
       </c>
       <c r="M100" t="n">
-        <v>-0.005268013134026583</v>
+        <v>-0.005268151520962272</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>109.3920059204102</v>
+        <v>109.3919982910156</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -6756,13 +6756,13 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>-12.48713277726136</v>
+        <v>-12.48713143410816</v>
       </c>
       <c r="R100" t="n">
-        <v>165.9377961094339</v>
+        <v>165.9375212144815</v>
       </c>
       <c r="S100" t="n">
-        <v>-19.44768254644648</v>
+        <v>-19.44768859627497</v>
       </c>
     </row>
     <row r="101">
@@ -6773,37 +6773,37 @@
         <v>279.8186950683594</v>
       </c>
       <c r="C101" t="n">
-        <v>52.29752349853516</v>
+        <v>52.29753112792969</v>
       </c>
       <c r="D101" t="n">
         <v>90.8402099609375</v>
       </c>
       <c r="E101" t="n">
-        <v>111.2725448608398</v>
+        <v>111.2725219726562</v>
       </c>
       <c r="F101" t="n">
-        <v>0.01578195034010998</v>
+        <v>0.016</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.119593232851857</v>
+        <v>-0.12</v>
       </c>
       <c r="H101" t="n">
-        <v>0.01718133676055644</v>
+        <v>0.017</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1064652822569572</v>
+        <v>0.106</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1269836538741043</v>
+        <v>0.1269835153553687</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05817438956043341</v>
+        <v>0.05817446225578871</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.0001966588154287408</v>
+        <v>-0.0001964909075091725</v>
       </c>
       <c r="M101" t="n">
-        <v>0.01719082600787036</v>
+        <v>0.01719068771957044</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>111.2725448608398</v>
+        <v>111.2725219726562</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -6819,13 +6819,13 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>1.719082600787036</v>
+        <v>1.719068771957044</v>
       </c>
       <c r="R101" t="n">
-        <v>168.7904038904807</v>
+        <v>168.7901013226392</v>
       </c>
       <c r="S101" t="n">
-        <v>-18.0629216725717</v>
+        <v>-18.06293896584394</v>
       </c>
     </row>
     <row r="102">
@@ -6833,40 +6833,40 @@
         <v>43982</v>
       </c>
       <c r="B102" t="n">
-        <v>293.1507263183594</v>
+        <v>293.1506958007812</v>
       </c>
       <c r="C102" t="n">
-        <v>55.13566207885742</v>
+        <v>55.13566589355469</v>
       </c>
       <c r="D102" t="n">
-        <v>90.82432556152344</v>
+        <v>90.82431030273438</v>
       </c>
       <c r="E102" t="n">
-        <v>112.0209197998047</v>
+        <v>112.0209045410156</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1129202474756736</v>
+        <v>0.113</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03699660384911319</v>
+        <v>-0.037</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0148944352669782</v>
+        <v>0.015</v>
       </c>
       <c r="I102" t="n">
-        <v>0.09880335642724258</v>
+        <v>0.099</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04764524845898155</v>
+        <v>0.04764513939701165</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05426908179317058</v>
+        <v>0.05426900093395193</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.0001748608839730048</v>
+        <v>-0.0001750288579249748</v>
       </c>
       <c r="M102" t="n">
-        <v>0.006725602797174934</v>
+        <v>0.006725672745543365</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         </is>
       </c>
       <c r="O102" t="n">
-        <v>293.1507263183594</v>
+        <v>293.1506958007812</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>0.6725602797174934</v>
+        <v>0.6725672745543365</v>
       </c>
       <c r="R102" t="n">
-        <v>169.9256211030228</v>
+        <v>169.9253283068224</v>
       </c>
       <c r="S102" t="n">
-        <v>-17.51184542938041</v>
+        <v>-17.51185710759659</v>
       </c>
     </row>
     <row r="103">
@@ -6902,34 +6902,34 @@
         <v>57.07157897949219</v>
       </c>
       <c r="D103" t="n">
-        <v>90.82432556152344</v>
+        <v>90.82431030273438</v>
       </c>
       <c r="E103" t="n">
-        <v>112.7592010498047</v>
+        <v>112.7592239379883</v>
       </c>
       <c r="F103" t="n">
-        <v>0.06377443930056947</v>
+        <v>0.064</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.05467108735080439</v>
+        <v>-0.055</v>
       </c>
       <c r="H103" t="n">
-        <v>0.01311071072992909</v>
+        <v>0.013</v>
       </c>
       <c r="I103" t="n">
-        <v>0.08816888514473398</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="J103" t="n">
-        <v>0.01773440101736812</v>
+        <v>0.01773450696556989</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03511188272058718</v>
+        <v>0.03511181110381423</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.006590565863228148</v>
+        <v>0.006590907295364046</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -6945,13 +6945,13 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>1.773440101736812</v>
+        <v>1.773450696556989</v>
       </c>
       <c r="R103" t="n">
-        <v>172.9391502107891</v>
+        <v>172.9388702253065</v>
       </c>
       <c r="S103" t="n">
-        <v>-16.04896741704239</v>
+        <v>-16.04897056289434</v>
       </c>
     </row>
     <row r="104">
@@ -6959,40 +6959,40 @@
         <v>44043</v>
       </c>
       <c r="B104" t="n">
-        <v>315.9200439453125</v>
+        <v>315.9200744628906</v>
       </c>
       <c r="C104" t="n">
-        <v>58.17794418334961</v>
+        <v>58.17795181274414</v>
       </c>
       <c r="D104" t="n">
-        <v>90.83425140380859</v>
+        <v>90.83424377441406</v>
       </c>
       <c r="E104" t="n">
-        <v>114.2625122070312</v>
+        <v>114.2625198364258</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1295555230395842</v>
+        <v>0.13</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.009806172353599485</v>
+        <v>-0.01</v>
       </c>
       <c r="H104" t="n">
-        <v>0.01106480700279122</v>
+        <v>0.011</v>
       </c>
       <c r="I104" t="n">
-        <v>0.09292453876628382</v>
+        <v>0.093</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05889220677025775</v>
+        <v>0.05889230905824583</v>
       </c>
       <c r="K104" t="n">
-        <v>0.01938557200695246</v>
+        <v>0.01938570568810638</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0001092861656146749</v>
+        <v>0.0001093701856538232</v>
       </c>
       <c r="M104" t="n">
-        <v>0.01333204867745175</v>
+        <v>0.01333191064940498</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>315.9200439453125</v>
+        <v>315.9200744628906</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -7008,13 +7008,13 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>5.889220677025775</v>
+        <v>5.889230905824583</v>
       </c>
       <c r="R104" t="n">
-        <v>183.1239184036756</v>
+        <v>183.1236396187991</v>
       </c>
       <c r="S104" t="n">
-        <v>-11.10490584759021</v>
+        <v>-11.10490059152642</v>
       </c>
     </row>
     <row r="105">
@@ -7025,37 +7025,37 @@
         <v>337.97021484375</v>
       </c>
       <c r="C105" t="n">
-        <v>60.92511749267578</v>
+        <v>60.92510986328125</v>
       </c>
       <c r="D105" t="n">
-        <v>90.83425140380859</v>
+        <v>90.83424377441406</v>
       </c>
       <c r="E105" t="n">
-        <v>113.3214569091797</v>
+        <v>113.3214416503906</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2182700107519571</v>
+        <v>0.218</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05434014463550962</v>
+        <v>0.054</v>
       </c>
       <c r="H105" t="n">
-        <v>0.009630039754018549</v>
+        <v>0.01</v>
       </c>
       <c r="I105" t="n">
-        <v>0.06283948367247616</v>
+        <v>0.063</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06979668217017121</v>
+        <v>0.06979657882883128</v>
       </c>
       <c r="K105" t="n">
-        <v>0.04722018537933148</v>
+        <v>0.04721991690906058</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.008235905894896423</v>
+        <v>-0.008236105657238868</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>6.979668217017121</v>
+        <v>6.979657882883128</v>
       </c>
       <c r="R105" t="n">
-        <v>195.9053603342533</v>
+        <v>195.9050431668751</v>
       </c>
       <c r="S105" t="n">
-        <v>-4.900323214547023</v>
+        <v>-4.900326778166102</v>
       </c>
     </row>
     <row r="106">
@@ -7085,10 +7085,10 @@
         <v>44104</v>
       </c>
       <c r="B106" t="n">
-        <v>325.3153991699219</v>
+        <v>325.3154296875</v>
       </c>
       <c r="C106" t="n">
-        <v>59.67810821533203</v>
+        <v>59.67810440063477</v>
       </c>
       <c r="D106" t="n">
         <v>90.81439971923828</v>
@@ -7097,28 +7097,28 @@
         <v>113.2111740112305</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1641184402727156</v>
+        <v>0.164</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01100754766339862</v>
+        <v>0.011</v>
       </c>
       <c r="H106" t="n">
-        <v>0.007811556094113659</v>
+        <v>0.008</v>
       </c>
       <c r="I106" t="n">
-        <v>0.06640841328322056</v>
+        <v>0.066</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.03744358265321901</v>
+        <v>-0.03744349235656919</v>
       </c>
       <c r="K106" t="n">
-        <v>-0.02046790106713636</v>
+        <v>-0.02046784101735433</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.0002185484469076071</v>
+        <v>-0.0002184644727715179</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.0009731863757946879</v>
+        <v>-0.0009730518563322299</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>325.3153991699219</v>
+        <v>325.3154296875</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>-3.744358265321901</v>
+        <v>-3.744349235656919</v>
       </c>
       <c r="R106" t="n">
-        <v>188.569961782369</v>
+        <v>188.5696741804429</v>
       </c>
       <c r="S106" t="n">
-        <v>-8.461195822557551</v>
+        <v>-8.461190665560073</v>
       </c>
     </row>
     <row r="107">
@@ -7148,40 +7148,40 @@
         <v>44135</v>
       </c>
       <c r="B107" t="n">
-        <v>317.2041625976562</v>
+        <v>317.2041931152344</v>
       </c>
       <c r="C107" t="n">
         <v>57.55913543701172</v>
       </c>
       <c r="D107" t="n">
-        <v>90.82432556152344</v>
+        <v>90.82431030273438</v>
       </c>
       <c r="E107" t="n">
-        <v>112.5791168212891</v>
+        <v>112.5791091918945</v>
       </c>
       <c r="F107" t="n">
-        <v>0.09733524630575685</v>
+        <v>0.097</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.06611013313306413</v>
+        <v>-0.066</v>
       </c>
       <c r="H107" t="n">
-        <v>0.00627099580755841</v>
+        <v>0.006</v>
       </c>
       <c r="I107" t="n">
-        <v>0.06017367168719834</v>
+        <v>0.06</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.0249334540970465</v>
+        <v>-0.02493345175805939</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.03550670156424163</v>
+        <v>-0.0355066399126529</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0001092981103860691</v>
+        <v>0.000109130088694398</v>
       </c>
       <c r="M107" t="n">
-        <v>-0.00558299298158238</v>
+        <v>-0.00558306037240841</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>317.2041625976562</v>
+        <v>317.2041931152344</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>-2.49334540970465</v>
+        <v>-2.493345175805939</v>
       </c>
       <c r="R107" t="n">
-        <v>183.8682612961865</v>
+        <v>183.8679813062318</v>
       </c>
       <c r="S107" t="n">
-        <v>-10.74357439461434</v>
+        <v>-10.74356915209053</v>
       </c>
     </row>
     <row r="108">
@@ -7223,28 +7223,28 @@
         <v>113.9376602172852</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1741959055315783</v>
+        <v>0.174</v>
       </c>
       <c r="G108" t="n">
-        <v>0.05525505186990998</v>
+        <v>0.055</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0050732314110562</v>
+        <v>0.005</v>
       </c>
       <c r="I108" t="n">
-        <v>0.07333812144157559</v>
+        <v>0.073</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1087768057135237</v>
+        <v>0.1087766990403349</v>
       </c>
       <c r="K108" t="n">
         <v>0.1426942214421283</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.0001092861656146749</v>
+        <v>-0.0001091181806177621</v>
       </c>
       <c r="M108" t="n">
-        <v>0.01206745473188131</v>
+        <v>0.01206752331886851</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -7260,13 +7260,13 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>10.87768057135237</v>
+        <v>10.87766990403349</v>
       </c>
       <c r="R108" t="n">
-        <v>203.8688634320852</v>
+        <v>203.8685333719337</v>
       </c>
       <c r="S108" t="n">
-        <v>-1.034545527853715</v>
+        <v>-1.034549236333013</v>
       </c>
     </row>
     <row r="109">
@@ -7283,19 +7283,19 @@
         <v>90.81737518310547</v>
       </c>
       <c r="E109" t="n">
-        <v>114.0353698730469</v>
+        <v>114.0353622436523</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1833165284255083</v>
+        <v>0.183</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07595141756219292</v>
+        <v>0.076</v>
       </c>
       <c r="H109" t="n">
-        <v>0.003985793951228445</v>
+        <v>0.004</v>
       </c>
       <c r="I109" t="n">
-        <v>0.07476106504202296</v>
+        <v>0.075</v>
       </c>
       <c r="J109" t="n">
         <v>0.03704831707099521</v>
@@ -7307,7 +7307,7 @@
         <v>3.276422986209226e-05</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0008575711979286194</v>
+        <v>0.0008575042367982011</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>3.704831707099521</v>
       </c>
       <c r="R109" t="n">
-        <v>211.4218617254205</v>
+        <v>211.4215194370959</v>
       </c>
       <c r="S109" t="n">
         <v>-0</v>
@@ -7337,40 +7337,40 @@
         <v>44227</v>
       </c>
       <c r="B110" t="n">
-        <v>361.02197265625</v>
+        <v>361.0220031738281</v>
       </c>
       <c r="C110" t="n">
-        <v>68.53163146972656</v>
+        <v>68.53162384033203</v>
       </c>
       <c r="D110" t="n">
         <v>90.81737518310547</v>
       </c>
       <c r="E110" t="n">
-        <v>113.1862869262695</v>
+        <v>113.186279296875</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1504546934059123</v>
+        <v>0.15</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07998758010038709</v>
+        <v>0.08</v>
       </c>
       <c r="H110" t="n">
-        <v>0.002779551531427948</v>
+        <v>0.003</v>
       </c>
       <c r="I110" t="n">
-        <v>0.04865411127773966</v>
+        <v>0.049</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.01019046396673562</v>
+        <v>-0.01019038029706409</v>
       </c>
       <c r="K110" t="n">
-        <v>-0.007812504314721691</v>
+        <v>-0.007812614771596671</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>-0.007445785879614419</v>
+        <v>-0.007445786377765495</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="O110" t="n">
-        <v>361.02197265625</v>
+        <v>361.0220031738281</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
@@ -7386,13 +7386,13 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>-1.019046396673562</v>
+        <v>-1.019038029706409</v>
       </c>
       <c r="R110" t="n">
-        <v>209.2673748617275</v>
+        <v>209.2670537510487</v>
       </c>
       <c r="S110" t="n">
-        <v>-1.019046396673553</v>
+        <v>-1.01903802970641</v>
       </c>
     </row>
     <row r="111">
@@ -7406,34 +7406,34 @@
         <v>70.06529235839844</v>
       </c>
       <c r="D111" t="n">
-        <v>90.80746459960938</v>
+        <v>90.80744934082031</v>
       </c>
       <c r="E111" t="n">
-        <v>111.4679870605469</v>
+        <v>111.4679718017578</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3023530366943135</v>
+        <v>0.302</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2103051238449112</v>
+        <v>0.21</v>
       </c>
       <c r="H111" t="n">
-        <v>0.001377425301684054</v>
+        <v>0.001</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02107718189660801</v>
+        <v>0.021</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02780548518812553</v>
+        <v>0.02780539830662287</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02237887608657552</v>
+        <v>0.02237898990456744</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.0001091265132482366</v>
+        <v>-0.0001092945294349779</v>
       </c>
       <c r="M111" t="n">
-        <v>-0.01518116648567125</v>
+        <v>-0.01518123491461587</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -7449,10 +7449,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>2.780548518812553</v>
+        <v>2.780539830662287</v>
       </c>
       <c r="R111" t="n">
-        <v>215.0861557538032</v>
+        <v>215.0858075330501</v>
       </c>
       <c r="S111" t="n">
         <v>-0</v>
@@ -7475,16 +7475,16 @@
         <v>110.190185546875</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5623116349635007</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4533116359507918</v>
+        <v>0.453</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.0006663895641513262</v>
+        <v>-0.001</v>
       </c>
       <c r="I112" t="n">
-        <v>0.007296507818364439</v>
+        <v>0.007</v>
       </c>
       <c r="J112" t="n">
         <v>0.04539931470808312</v>
@@ -7493,10 +7493,10 @@
         <v>0.02513176208279155</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.0001093904749294161</v>
+        <v>-0.0001092224587588841</v>
       </c>
       <c r="M112" t="n">
-        <v>-0.01146339453477174</v>
+        <v>-0.01146325921454205</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>4.539931470808312</v>
       </c>
       <c r="R112" t="n">
-        <v>224.8509198282219</v>
+        <v>224.8505557984852</v>
       </c>
       <c r="S112" t="n">
         <v>-0</v>
@@ -7535,19 +7535,19 @@
         <v>90.79753112792969</v>
       </c>
       <c r="E113" t="n">
-        <v>110.9968032836914</v>
+        <v>110.9967956542969</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4596256404255206</v>
+        <v>0.46</v>
       </c>
       <c r="G113" t="n">
-        <v>0.413962832439621</v>
+        <v>0.414</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.0004698231435854572</v>
+        <v>-0</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.002478073791637336</v>
+        <v>-0.002</v>
       </c>
       <c r="J113" t="n">
         <v>0.05291044419157331</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0.007320232131502014</v>
+        <v>0.007320162893080351</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>5.291044419157331</v>
       </c>
       <c r="R113" t="n">
-        <v>236.7478818732169</v>
+        <v>236.7474985825052</v>
       </c>
       <c r="S113" t="n">
         <v>-0</v>
@@ -7595,22 +7595,22 @@
         <v>76.52178192138672</v>
       </c>
       <c r="D114" t="n">
-        <v>90.78759765625</v>
+        <v>90.78760528564453</v>
       </c>
       <c r="E114" t="n">
-        <v>111.2230377197266</v>
+        <v>111.2230453491211</v>
       </c>
       <c r="F114" t="n">
-        <v>0.408641366115573</v>
+        <v>0.409</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3830119958280176</v>
+        <v>0.383</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.0004043840132735843</v>
+        <v>-0</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.004499621998428127</v>
+        <v>-0.004</v>
       </c>
       <c r="J114" t="n">
         <v>0.006566093710352217</v>
@@ -7619,10 +7619,10 @@
         <v>0.03482272460473723</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.0001094024425145612</v>
+        <v>-0.0001093184160609884</v>
       </c>
       <c r="M114" t="n">
-        <v>0.00203820677120703</v>
+        <v>0.002038344381840362</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>0.6566093710352217</v>
       </c>
       <c r="R114" t="n">
-        <v>238.3023906513238</v>
+        <v>238.3020048438894</v>
       </c>
       <c r="S114" t="n">
         <v>-0</v>
@@ -7652,40 +7652,40 @@
         <v>44377</v>
       </c>
       <c r="B115" t="n">
-        <v>420.3325500488281</v>
+        <v>420.3324890136719</v>
       </c>
       <c r="C115" t="n">
         <v>75.69686889648438</v>
       </c>
       <c r="D115" t="n">
-        <v>90.76776885986328</v>
+        <v>90.76776123046875</v>
       </c>
       <c r="E115" t="n">
-        <v>112.1438598632812</v>
+        <v>112.1438674926758</v>
       </c>
       <c r="F115" t="n">
-        <v>0.408859203550948</v>
+        <v>0.409</v>
       </c>
       <c r="G115" t="n">
-        <v>0.3263496516135449</v>
+        <v>0.326</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.0006227043395091725</v>
+        <v>-0.001</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.005457126166153348</v>
+        <v>-0.005</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02242748284152207</v>
+        <v>0.02242733437807054</v>
       </c>
       <c r="K115" t="n">
         <v>-0.01078010736537482</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.0002184086472009072</v>
+        <v>-0.0002185767001271488</v>
       </c>
       <c r="M115" t="n">
-        <v>0.008279059468552674</v>
+        <v>0.00827905890064673</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         </is>
       </c>
       <c r="O115" t="n">
-        <v>420.3325500488281</v>
+        <v>420.3324890136719</v>
       </c>
       <c r="P115" t="inlineStr">
         <is>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>2.242748284152207</v>
+        <v>2.242733437807054</v>
       </c>
       <c r="R115" t="n">
-        <v>243.6469134287501</v>
+        <v>243.646483589488</v>
       </c>
       <c r="S115" t="n">
         <v>-0</v>
@@ -7715,40 +7715,40 @@
         <v>44408</v>
       </c>
       <c r="B116" t="n">
-        <v>430.5938720703125</v>
+        <v>430.5939025878906</v>
       </c>
       <c r="C116" t="n">
         <v>76.28224945068359</v>
       </c>
       <c r="D116" t="n">
-        <v>90.75782775878906</v>
+        <v>90.75783538818359</v>
       </c>
       <c r="E116" t="n">
-        <v>113.3960418701172</v>
+        <v>113.3960266113281</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3737541751428743</v>
+        <v>0.374</v>
       </c>
       <c r="G116" t="n">
-        <v>0.2832687247506243</v>
+        <v>0.283</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.0007321585084529847</v>
+        <v>-0.001</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.007168099888078761</v>
+        <v>-0.007</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02441238971450677</v>
+        <v>0.02441261106962633</v>
       </c>
       <c r="K116" t="n">
         <v>0.007733220181137535</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.0001095223689983049</v>
+        <v>-0.0001093542701792183</v>
       </c>
       <c r="M116" t="n">
-        <v>0.01116585436208917</v>
+        <v>0.01116564950583787</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         </is>
       </c>
       <c r="O116" t="n">
-        <v>430.5938720703125</v>
+        <v>430.5939025878906</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
@@ -7764,10 +7764,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>2.441238971450677</v>
+        <v>2.441261106962633</v>
       </c>
       <c r="R116" t="n">
-        <v>249.5949168321094</v>
+        <v>249.5945304318402</v>
       </c>
       <c r="S116" t="n">
         <v>-0</v>
@@ -7784,34 +7784,34 @@
         <v>77.38584136962891</v>
       </c>
       <c r="D117" t="n">
-        <v>90.74790191650391</v>
+        <v>90.74790954589844</v>
       </c>
       <c r="E117" t="n">
-        <v>113.1688385009766</v>
+        <v>113.1688461303711</v>
       </c>
       <c r="F117" t="n">
-        <v>0.3119744734982945</v>
+        <v>0.312</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2701796000464338</v>
+        <v>0.27</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.0009506269493081421</v>
+        <v>-0.001</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.001346774144683316</v>
+        <v>-0.001</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02975988149996112</v>
+        <v>0.02975980851755833</v>
       </c>
       <c r="K117" t="n">
         <v>0.01446721782449245</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.0001093662390371231</v>
+        <v>-0.0001093662298434772</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.002003626981979312</v>
+        <v>-0.002003425408684811</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -7827,10 +7827,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>2.975988149996112</v>
+        <v>2.975980851755833</v>
       </c>
       <c r="R117" t="n">
-        <v>257.0228319800257</v>
+        <v>257.0224158645217</v>
       </c>
       <c r="S117" t="n">
         <v>-0</v>
@@ -7847,22 +7847,22 @@
         <v>74.86197662353516</v>
       </c>
       <c r="D118" t="n">
-        <v>90.75782775878906</v>
+        <v>90.75783538818359</v>
       </c>
       <c r="E118" t="n">
-        <v>112.1308135986328</v>
+        <v>112.1308364868164</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2994867229490612</v>
+        <v>0.299</v>
       </c>
       <c r="G118" t="n">
-        <v>0.2544294526464599</v>
+        <v>0.254</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.0006229404216083756</v>
+        <v>-0.001</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.00954287791848607</v>
+        <v>-0.01</v>
       </c>
       <c r="J118" t="n">
         <v>-0.04660547160166728</v>
@@ -7871,10 +7871,10 @@
         <v>-0.03261403767697835</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0001093782013195099</v>
+        <v>0.0001093781921239767</v>
       </c>
       <c r="M118" t="n">
-        <v>-0.009172356243055346</v>
+        <v>-0.009172220792627805</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -7893,10 +7893,10 @@
         <v>-4.660547160166728</v>
       </c>
       <c r="R118" t="n">
-        <v>245.0441616832005</v>
+        <v>245.0437649609558</v>
       </c>
       <c r="S118" t="n">
-        <v>-4.660547160166733</v>
+        <v>-4.660547160166731</v>
       </c>
     </row>
     <row r="119">
@@ -7904,40 +7904,40 @@
         <v>44500</v>
       </c>
       <c r="B119" t="n">
-        <v>452.4041748046875</v>
+        <v>452.4042053222656</v>
       </c>
       <c r="C119" t="n">
         <v>77.24189758300781</v>
       </c>
       <c r="D119" t="n">
-        <v>90.74790191650391</v>
+        <v>90.74790954589844</v>
       </c>
       <c r="E119" t="n">
-        <v>112.1210327148438</v>
+        <v>112.1210403442383</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4113557722105041</v>
+        <v>0.411</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3349984799669132</v>
+        <v>0.335</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.0008414446740676595</v>
+        <v>-0.001</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.006780499983306543</v>
+        <v>-0.007</v>
       </c>
       <c r="J119" t="n">
-        <v>0.07016350327783316</v>
+        <v>0.07016357546726049</v>
       </c>
       <c r="K119" t="n">
         <v>0.03179078441170158</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.0001093662390371231</v>
+        <v>-0.0001093662298434772</v>
       </c>
       <c r="M119" t="n">
-        <v>-8.722743976574687e-05</v>
+        <v>-8.736350218230271e-05</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="O119" t="n">
-        <v>452.4041748046875</v>
+        <v>452.4042053222656</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
@@ -7953,10 +7953,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>7.016350327783316</v>
+        <v>7.016357546726049</v>
       </c>
       <c r="R119" t="n">
-        <v>262.2373185246736</v>
+        <v>262.2369116565755</v>
       </c>
       <c r="S119" t="n">
         <v>-0</v>
@@ -7967,40 +7967,40 @@
         <v>44530</v>
       </c>
       <c r="B120" t="n">
-        <v>448.7691955566406</v>
+        <v>448.7692260742188</v>
       </c>
       <c r="C120" t="n">
         <v>73.73918914794922</v>
       </c>
       <c r="D120" t="n">
-        <v>90.72806549072266</v>
+        <v>90.72807312011719</v>
       </c>
       <c r="E120" t="n">
-        <v>112.4247207641602</v>
+        <v>112.4246978759766</v>
       </c>
       <c r="F120" t="n">
-        <v>0.2759687206393731</v>
+        <v>0.276</v>
       </c>
       <c r="G120" t="n">
-        <v>0.121125070932006</v>
+        <v>0.121</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.0009506667310750228</v>
+        <v>-0.001</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.01327866001671218</v>
+        <v>-0.013</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.008034804828262687</v>
+        <v>-0.008034804286263242</v>
       </c>
       <c r="K120" t="n">
         <v>-0.04534726029088576</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.0002185882578255027</v>
+        <v>-0.0002185882394483141</v>
       </c>
       <c r="M120" t="n">
-        <v>0.002708573422515403</v>
+        <v>0.002708301053985673</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="O120" t="n">
-        <v>448.7691955566406</v>
+        <v>448.7692260742188</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
@@ -8016,13 +8016,13 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>-0.8034804828262687</v>
+        <v>-0.8034804286263242</v>
       </c>
       <c r="R120" t="n">
-        <v>260.1302928516409</v>
+        <v>260.1298893947808</v>
       </c>
       <c r="S120" t="n">
-        <v>-0.8034804828262713</v>
+        <v>-0.8034804286263161</v>
       </c>
     </row>
     <row r="121">
@@ -8030,31 +8030,31 @@
         <v>44561</v>
       </c>
       <c r="B121" t="n">
-        <v>469.5238037109375</v>
+        <v>469.5237731933594</v>
       </c>
       <c r="C121" t="n">
         <v>76.97702789306641</v>
       </c>
       <c r="D121" t="n">
-        <v>90.72806549072266</v>
+        <v>90.72807312011719</v>
       </c>
       <c r="E121" t="n">
         <v>112.0214233398438</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2872876819334254</v>
+        <v>0.287</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1144582857954557</v>
+        <v>0.114</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.0009833987406346889</v>
+        <v>-0.001</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.01766071820914172</v>
+        <v>-0.018</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04624784490511535</v>
+        <v>0.04624770575446768</v>
       </c>
       <c r="K121" t="n">
         <v>0.04390933481273884</v>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>-0.003587266408803691</v>
+        <v>-0.003587063552331626</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="O121" t="n">
-        <v>469.5238037109375</v>
+        <v>469.5237731933594</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
@@ -8079,10 +8079,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>4.624784490511535</v>
+        <v>4.624770575446768</v>
       </c>
       <c r="R121" t="n">
-        <v>272.1607582905658</v>
+        <v>272.1602999774528</v>
       </c>
       <c r="S121" t="n">
         <v>-0</v>
@@ -8099,25 +8099,25 @@
         <v>74.17893218994141</v>
       </c>
       <c r="D122" t="n">
-        <v>90.72806549072266</v>
+        <v>90.72807312011719</v>
       </c>
       <c r="E122" t="n">
-        <v>109.7825546264648</v>
+        <v>109.7825622558594</v>
       </c>
       <c r="F122" t="n">
-        <v>0.231948556411987</v>
+        <v>0.232</v>
       </c>
       <c r="G122" t="n">
-        <v>0.08240429417924333</v>
+        <v>0.082</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.0009833987406346889</v>
+        <v>-0.001</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.03007194945816982</v>
+        <v>-0.03</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.05274132103280549</v>
+        <v>-0.05274125946395125</v>
       </c>
       <c r="K122" t="n">
         <v>-0.03634974978524774</v>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>-0.01998607629352078</v>
+        <v>-0.01998600818695417</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -8142,13 +8142,13 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>-5.274132103280548</v>
+        <v>-5.274125946395126</v>
       </c>
       <c r="R122" t="n">
-        <v>257.8066403650313</v>
+        <v>257.8062229805552</v>
       </c>
       <c r="S122" t="n">
-        <v>-5.274132103280551</v>
+        <v>-5.274125946395122</v>
       </c>
     </row>
     <row r="123">
@@ -8162,22 +8162,22 @@
         <v>71.63520812988281</v>
       </c>
       <c r="D123" t="n">
-        <v>90.70822143554688</v>
+        <v>90.70822906494141</v>
       </c>
       <c r="E123" t="n">
-        <v>108.5248260498047</v>
+        <v>108.5248336791992</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1632406731329283</v>
+        <v>0.163</v>
       </c>
       <c r="G123" t="n">
-        <v>0.02240646857582407</v>
+        <v>0.022</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.001092896542151944</v>
+        <v>-0.001</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.02640364366805625</v>
+        <v>-0.026</v>
       </c>
       <c r="J123" t="n">
         <v>-0.02951698898689659</v>
@@ -8186,10 +8186,10 @@
         <v>-0.03429173196434232</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.0002187201398866634</v>
+        <v>-0.0002187201214943757</v>
       </c>
       <c r="M123" t="n">
-        <v>-0.01145654317245193</v>
+        <v>-0.01145654237627369</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -8208,10 +8208,10 @@
         <v>-2.951698898689659</v>
       </c>
       <c r="R123" t="n">
-        <v>250.1969646006279</v>
+        <v>250.1965595360847</v>
       </c>
       <c r="S123" t="n">
-        <v>-8.070154502762239</v>
+        <v>-8.070148527609527</v>
       </c>
     </row>
     <row r="124">
@@ -8219,40 +8219,40 @@
         <v>44651</v>
       </c>
       <c r="B124" t="n">
-        <v>447.8577575683594</v>
+        <v>447.8577270507812</v>
       </c>
       <c r="C124" t="n">
         <v>72.00698089599609</v>
       </c>
       <c r="D124" t="n">
-        <v>90.74990844726562</v>
+        <v>90.74992370605469</v>
       </c>
       <c r="E124" t="n">
-        <v>105.4729080200195</v>
+        <v>105.4729156494141</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1545515380800371</v>
+        <v>0.155</v>
       </c>
       <c r="G124" t="n">
-        <v>0.002517526877448883</v>
+        <v>0.003</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.0005244931230229399</v>
+        <v>-0.001</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.04281032383640682</v>
+        <v>-0.043</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0375904269692855</v>
+        <v>0.03759035626659823</v>
       </c>
       <c r="K124" t="n">
         <v>0.005189805066793562</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0004595725840392806</v>
+        <v>0.0004596566545624903</v>
       </c>
       <c r="M124" t="n">
-        <v>-0.02812184217079106</v>
+        <v>-0.02812184019379993</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="O124" t="n">
-        <v>447.8577575683594</v>
+        <v>447.8577270507812</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
@@ -8268,13 +8268,13 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>3.75904269692855</v>
+        <v>3.759035626659823</v>
       </c>
       <c r="R124" t="n">
-        <v>259.6019753263847</v>
+        <v>259.6015373457233</v>
       </c>
       <c r="S124" t="n">
-        <v>-4.614472359300631</v>
+        <v>-4.614472659226902</v>
       </c>
     </row>
     <row r="125">
@@ -8288,34 +8288,34 @@
         <v>67.15433502197266</v>
       </c>
       <c r="D125" t="n">
-        <v>90.739990234375</v>
+        <v>90.73998260498047</v>
       </c>
       <c r="E125" t="n">
-        <v>101.4587554931641</v>
+        <v>101.4587478637695</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.006280670628027729</v>
+        <v>-0.006</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.1032216075628875</v>
+        <v>-0.103</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.0005243824388354579</v>
+        <v>-0.001</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.08497168885601736</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.0877691058978074</v>
+        <v>-0.08776904373726868</v>
       </c>
       <c r="K125" t="n">
         <v>-0.06739132530820036</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.000109291712358961</v>
+        <v>-0.0001095439055840419</v>
       </c>
       <c r="M125" t="n">
-        <v>-0.03805861241726216</v>
+        <v>-0.03805875433450034</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         </is>
       </c>
       <c r="O125" t="n">
-        <v>101.4587554931641</v>
+        <v>101.4587478637695</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
@@ -8331,13 +8331,13 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>-8.776910589780741</v>
+        <v>-8.776904373726868</v>
       </c>
       <c r="R125" t="n">
-        <v>236.8169420626832</v>
+        <v>236.8165586601644</v>
       </c>
       <c r="S125" t="n">
-        <v>-12.98637483591541</v>
+        <v>-12.98636918030166</v>
       </c>
     </row>
     <row r="126">
@@ -8351,22 +8351,22 @@
         <v>68.49468231201172</v>
       </c>
       <c r="D126" t="n">
-        <v>90.76975250244141</v>
+        <v>90.76976013183594</v>
       </c>
       <c r="E126" t="n">
         <v>102.2304000854492</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.003990252186699572</v>
+        <v>-0.004</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.1048995385081531</v>
+        <v>-0.105</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.0001965593789160502</v>
+        <v>-0</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.08085229300190577</v>
+        <v>-0.081</v>
       </c>
       <c r="J126" t="n">
         <v>0.002257279181938632</v>
@@ -8375,10 +8375,10 @@
         <v>0.01995920724403732</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0003279950547661059</v>
+        <v>0.0003281632418323799</v>
       </c>
       <c r="M126" t="n">
-        <v>0.007605500269882048</v>
+        <v>0.007605576038803408</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -8394,13 +8394,13 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>0.7605500269882048</v>
+        <v>0.7605576038803408</v>
       </c>
       <c r="R126" t="n">
-        <v>238.6180533794536</v>
+        <v>238.617685004302</v>
       </c>
       <c r="S126" t="n">
-        <v>-12.32459268624656</v>
+        <v>-12.32458039469008</v>
       </c>
     </row>
     <row r="127">
@@ -8414,22 +8414,22 @@
         <v>62.4900016784668</v>
       </c>
       <c r="D127" t="n">
-        <v>90.84024810791016</v>
+        <v>90.84027099609375</v>
       </c>
       <c r="E127" t="n">
-        <v>100.6427612304688</v>
+        <v>100.6427536010742</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.1061680448125696</v>
+        <v>-0.106</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.1744704557869889</v>
+        <v>-0.174</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0007985130510232974</v>
+        <v>0.001</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.1025566504205752</v>
+        <v>-0.103</v>
       </c>
       <c r="J127" t="n">
         <v>-0.0824604296976168</v>
@@ -8438,10 +8438,10 @@
         <v>-0.08766637687568191</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0007766420368597871</v>
+        <v>0.000776810075904244</v>
       </c>
       <c r="M127" t="n">
-        <v>-0.01553000725472498</v>
+        <v>-0.01553008188413585</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="O127" t="n">
-        <v>100.6427612304688</v>
+        <v>100.6427536010742</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
@@ -8457,13 +8457,13 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>-1.553000725472498</v>
+        <v>-1.553008188413585</v>
       </c>
       <c r="R127" t="n">
-        <v>234.9123132793623</v>
+        <v>234.9119328171822</v>
       </c>
       <c r="S127" t="n">
-        <v>-13.68619239789012</v>
+        <v>-13.6861868403865</v>
       </c>
     </row>
     <row r="128">
@@ -8483,16 +8483,16 @@
         <v>103.1971588134766</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.05174708175542253</v>
+        <v>-0.052</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.1428836388479328</v>
+        <v>-0.143</v>
       </c>
       <c r="H128" t="n">
-        <v>0.001159861220112912</v>
+        <v>0.001</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.08868841075100786</v>
+        <v>-0.089</v>
       </c>
       <c r="J128" t="n">
         <v>0.09208745303852872</v>
@@ -8501,10 +8501,10 @@
         <v>0.05168826140949423</v>
       </c>
       <c r="L128" t="n">
-        <v>0.000361059858080548</v>
+        <v>0.0003608078063490616</v>
       </c>
       <c r="M128" t="n">
-        <v>0.02538083764572319</v>
+        <v>0.0253809153764557</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -8520,13 +8520,13 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>2.538083764572319</v>
+        <v>2.53809153764557</v>
       </c>
       <c r="R128" t="n">
-        <v>240.8745845636871</v>
+        <v>240.8742127049348</v>
       </c>
       <c r="S128" t="n">
-        <v>-11.49547566055678</v>
+        <v>-11.49546325276314</v>
       </c>
     </row>
     <row r="129">
@@ -8546,16 +8546,16 @@
         <v>100.0576171875</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.1124133260901898</v>
+        <v>-0.112</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.202696518239906</v>
+        <v>-0.203</v>
       </c>
       <c r="H129" t="n">
-        <v>0.003318842333046357</v>
+        <v>0.003</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.1158554023099161</v>
+        <v>-0.116</v>
       </c>
       <c r="J129" t="n">
         <v>-0.04080198981633054</v>
@@ -8586,10 +8586,10 @@
         <v>-3.042275254545646</v>
       </c>
       <c r="R129" t="n">
-        <v>233.5465166830164</v>
+        <v>233.546156137231</v>
       </c>
       <c r="S129" t="n">
-        <v>-14.18802690368899</v>
+        <v>-14.18801487337458</v>
       </c>
     </row>
     <row r="130">
@@ -8609,16 +8609,16 @@
         <v>95.91020202636719</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.15508960007346</v>
+        <v>-0.155</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.2518231437676901</v>
+        <v>-0.252</v>
       </c>
       <c r="H130" t="n">
-        <v>0.005283288821862575</v>
+        <v>0.005</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.1446579316754677</v>
+        <v>-0.145</v>
       </c>
       <c r="J130" t="n">
         <v>-0.0924458692823249</v>
@@ -8649,10 +8649,10 @@
         <v>-4.145026913204308</v>
       </c>
       <c r="R130" t="n">
-        <v>223.8659507116541</v>
+        <v>223.8656051105886</v>
       </c>
       <c r="S130" t="n">
-        <v>-17.74495628328273</v>
+        <v>-17.74494475162808</v>
       </c>
     </row>
     <row r="131">
@@ -8672,16 +8672,16 @@
         <v>94.68400573730469</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.1463164732690339</v>
+        <v>-0.146</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.232152455737462</v>
+        <v>-0.232</v>
       </c>
       <c r="H131" t="n">
-        <v>0.00698742587861334</v>
+        <v>0.007</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.1555196786483984</v>
+        <v>-0.156</v>
       </c>
       <c r="J131" t="n">
         <v>0.08127554559207328</v>
@@ -8712,10 +8712,10 @@
         <v>-1.278483689071364</v>
       </c>
       <c r="R131" t="n">
-        <v>221.0038610464211</v>
+        <v>221.0035198638088</v>
       </c>
       <c r="S131" t="n">
-        <v>-18.79657360063947</v>
+        <v>-18.79656221641515</v>
       </c>
     </row>
     <row r="132">
@@ -8723,40 +8723,40 @@
         <v>44895</v>
       </c>
       <c r="B132" t="n">
-        <v>372.6900939941406</v>
+        <v>376.3500061035156</v>
       </c>
       <c r="C132" t="n">
-        <v>58.54150009155273</v>
+        <v>60.75</v>
       </c>
       <c r="D132" t="n">
-        <v>91.44750213623047</v>
+        <v>91.47000122070312</v>
       </c>
       <c r="E132" t="n">
-        <v>94.20999908447266</v>
+        <v>94.33999633789062</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.1858975722135979</v>
+        <v>-0.182</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.25387437021064</v>
+        <v>-0.225</v>
       </c>
       <c r="H132" t="n">
-        <v>0.007929593137653512</v>
+        <v>0.008</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.1592332154644581</v>
+        <v>-0.161</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.03500659682573248</v>
+        <v>-0.02553011462602039</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.01295736408605719</v>
+        <v>0.02427918720901356</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0007168368409720127</v>
+        <v>0.0009630460005372043</v>
       </c>
       <c r="M132" t="n">
-        <v>-0.005006195599150498</v>
+        <v>-0.003633236645780413</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         </is>
       </c>
       <c r="O132" t="n">
-        <v>94.20999908447266</v>
+        <v>94.33999633789062</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -8772,13 +8772,13 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>-0.5006195599150498</v>
+        <v>-0.3633236645780413</v>
       </c>
       <c r="R132" t="n">
-        <v>219.8974724898553</v>
+        <v>220.2005617765932</v>
       </c>
       <c r="S132" t="n">
-        <v>-19.20309383651589</v>
+        <v>-19.09159352233382</v>
       </c>
     </row>
   </sheetData>
